--- a/ReviewFiles/Plants_01.xlsx
+++ b/ReviewFiles/Plants_01.xlsx
@@ -191,6 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -212,7 +213,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,7 +1198,11 @@
           <t>Type Initials</t>
         </is>
       </c>
-      <c r="AE2" s="5" t="inlineStr"/>
+      <c r="AE2" s="5" t="inlineStr">
+        <is>
+          <t>Populated from `Other Links`</t>
+        </is>
+      </c>
       <c r="AF2" s="5" t="inlineStr"/>
       <c r="AG2" s="5" t="inlineStr"/>
       <c r="AH2" s="5" t="inlineStr"/>
@@ -1346,7 +1350,7 @@
       </c>
       <c r="AC3" s="12" t="inlineStr">
         <is>
-          <t>00010101_JC</t>
+          <t>20250613_AN</t>
         </is>
       </c>
       <c r="AD3" s="13" t="inlineStr"/>
@@ -1355,137 +1359,146 @@
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF3" s="14" t="inlineStr"/>
-      <c r="AG3" s="14" t="inlineStr"/>
-      <c r="AH3" s="14" t="inlineStr"/>
+      <c r="AF3" s="14">
+        <f>CHOOSE(MATCH($AE3,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$3,'Other Links'!$F$3,'Other Links'!$I$3,'Other Links'!$L$3,'Other Links'!$O$3)</f>
+        <v/>
+      </c>
+      <c r="AG3" s="15">
+        <f>CHOOSE(MATCH($AE3,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$3,'Other Links'!$G$3,'Other Links'!$J$3,'Other Links'!$M$3,'Other Links'!$P$3)</f>
+        <v/>
+      </c>
+      <c r="AH3" s="14">
+        <f>CHOOSE(MATCH($AE3,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$3,'Other Links'!$H$3,'Other Links'!$K$3,'Other Links'!$N$3,'Other Links'!$Q$3)</f>
+        <v/>
+      </c>
     </row>
     <row r="4" ht="28" customHeight="1">
-      <c r="A4" s="15" t="inlineStr">
+      <c r="A4" s="16" t="inlineStr">
         <is>
           <t>Herbaceous, Perennial</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B4" s="16" t="inlineStr">
         <is>
           <t>HE2</t>
         </is>
       </c>
-      <c r="C4" s="16" t="inlineStr">
+      <c r="C4" s="17" t="inlineStr">
         <is>
           <t>Bgenus bspecies 'Variety2'</t>
         </is>
       </c>
-      <c r="D4" s="15" t="inlineStr">
+      <c r="D4" s="16" t="inlineStr">
         <is>
           <t>COMMON NAME2</t>
         </is>
       </c>
-      <c r="E4" s="15" t="inlineStr">
+      <c r="E4" s="16" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="F4" s="15" t="inlineStr">
+      <c r="F4" s="16" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="G4" s="15" t="inlineStr">
+      <c r="G4" s="16" t="inlineStr">
         <is>
           <t>Red, Orange, Yellow, Blue, Inigo, Violet</t>
         </is>
       </c>
-      <c r="H4" s="15" t="inlineStr">
+      <c r="H4" s="16" t="inlineStr">
         <is>
           <t>Jan, Feb, Mar, Apr, May, Jun, Jul, Aug, Sep, Oct, Nov, Dec</t>
         </is>
       </c>
-      <c r="I4" s="15" t="inlineStr">
+      <c r="I4" s="16" t="inlineStr">
         <is>
           <t>Part Shade, Full Shade</t>
         </is>
       </c>
-      <c r="J4" s="15" t="inlineStr">
+      <c r="J4" s="16" t="inlineStr">
         <is>
           <t>Medium, Wet</t>
         </is>
       </c>
-      <c r="K4" s="15" t="inlineStr">
+      <c r="K4" s="16" t="inlineStr">
         <is>
           <t>FACW</t>
         </is>
       </c>
-      <c r="L4" s="15" t="inlineStr">
+      <c r="L4" s="16" t="inlineStr">
         <is>
           <t>Zone 5 - 9</t>
         </is>
       </c>
-      <c r="M4" s="17" t="inlineStr">
+      <c r="M4" s="18" t="inlineStr">
         <is>
           <t>Bees</t>
         </is>
       </c>
-      <c r="N4" s="17" t="inlineStr">
+      <c r="N4" s="18" t="inlineStr">
         <is>
           <t>Deer, Drought, Clay Soil, Dry Soil, Shallow-Rocky Soil</t>
         </is>
       </c>
-      <c r="O4" s="17" t="inlineStr">
+      <c r="O4" s="18" t="inlineStr">
         <is>
           <t>Light, rich, wet to moist soils.</t>
         </is>
       </c>
-      <c r="P4" s="17" t="inlineStr">
+      <c r="P4" s="18" t="inlineStr">
         <is>
           <t>Condition Comments Lorem ipsum</t>
         </is>
       </c>
-      <c r="Q4" s="15" t="inlineStr">
+      <c r="Q4" s="16" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R4" s="17" t="inlineStr">
+      <c r="R4" s="18" t="inlineStr">
         <is>
           <t>Well-drained limestone, sand, clay, loam. Rocky, open woods; thickets; prairies.</t>
         </is>
       </c>
-      <c r="S4" s="17" t="inlineStr">
+      <c r="S4" s="18" t="inlineStr">
         <is>
           <t>Easily grown in average, medium to wet soils in full sun</t>
         </is>
       </c>
-      <c r="T4" s="17" t="inlineStr">
+      <c r="T4" s="18" t="inlineStr">
         <is>
           <t>Water or bog gardens. Pond edges.</t>
         </is>
       </c>
-      <c r="U4" s="17" t="inlineStr">
+      <c r="U4" s="18" t="inlineStr">
         <is>
           <t>Use Ornamental: EXAPMLE, Use Wildlife: Wild., Use Food: Foods., Use Medicinal: Meds.</t>
         </is>
       </c>
-      <c r="V4" s="15" t="inlineStr">
+      <c r="V4" s="16" t="inlineStr">
         <is>
           <t>Maintenance: lorem ipsum.</t>
         </is>
       </c>
-      <c r="W4" s="15" t="inlineStr">
+      <c r="W4" s="16" t="inlineStr">
         <is>
           <t>Problems Lorem ipsum</t>
         </is>
       </c>
-      <c r="X4" s="18" t="inlineStr">
+      <c r="X4" s="19" t="inlineStr">
         <is>
           <t>http://mbg.org/bgenus</t>
         </is>
       </c>
-      <c r="Y4" s="18" t="inlineStr">
+      <c r="Y4" s="19" t="inlineStr">
         <is>
           <t>http://wildflower.org/bgenus</t>
         </is>
       </c>
-      <c r="Z4" s="18" t="inlineStr">
+      <c r="Z4" s="19" t="inlineStr">
         <is>
           <t>https://pleasantrunnursery.com/plants/bgenusbspecies</t>
         </is>
@@ -1495,25 +1508,34 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB4" s="18" t="inlineStr">
+      <c r="AB4" s="19" t="inlineStr">
         <is>
           <t>https://pinelandsnursery.com/plants/bgenusbspecies</t>
         </is>
       </c>
       <c r="AC4" s="12" t="inlineStr">
         <is>
-          <t>00010101_JC</t>
-        </is>
-      </c>
-      <c r="AD4" s="19" t="inlineStr"/>
+          <t>20250613_AN</t>
+        </is>
+      </c>
+      <c r="AD4" s="20" t="inlineStr"/>
       <c r="AE4" s="8" t="inlineStr">
         <is>
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF4" s="20" t="inlineStr"/>
-      <c r="AG4" s="20" t="inlineStr"/>
-      <c r="AH4" s="20" t="inlineStr"/>
+      <c r="AF4" s="21">
+        <f>CHOOSE(MATCH($AE4,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$4,'Other Links'!$F$4,'Other Links'!$I$4,'Other Links'!$L$4,'Other Links'!$O$4)</f>
+        <v/>
+      </c>
+      <c r="AG4" s="15">
+        <f>CHOOSE(MATCH($AE4,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$4,'Other Links'!$G$4,'Other Links'!$J$4,'Other Links'!$M$4,'Other Links'!$P$4)</f>
+        <v/>
+      </c>
+      <c r="AH4" s="21">
+        <f>CHOOSE(MATCH($AE4,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$4,'Other Links'!$H$4,'Other Links'!$K$4,'Other Links'!$N$4,'Other Links'!$Q$4)</f>
+        <v/>
+      </c>
     </row>
     <row r="5" ht="28" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
@@ -1658,7 +1680,7 @@
       </c>
       <c r="AC5" s="12" t="inlineStr">
         <is>
-          <t>00010101_JC</t>
+          <t>20250613_AN</t>
         </is>
       </c>
       <c r="AD5" s="13" t="inlineStr"/>
@@ -1667,127 +1689,136 @@
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF5" s="14" t="inlineStr"/>
-      <c r="AG5" s="14" t="inlineStr"/>
-      <c r="AH5" s="14" t="inlineStr"/>
+      <c r="AF5" s="14">
+        <f>CHOOSE(MATCH($AE5,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$5,'Other Links'!$F$5,'Other Links'!$I$5,'Other Links'!$L$5,'Other Links'!$O$5)</f>
+        <v/>
+      </c>
+      <c r="AG5" s="15">
+        <f>CHOOSE(MATCH($AE5,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$5,'Other Links'!$G$5,'Other Links'!$J$5,'Other Links'!$M$5,'Other Links'!$P$5)</f>
+        <v/>
+      </c>
+      <c r="AH5" s="14">
+        <f>CHOOSE(MATCH($AE5,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$5,'Other Links'!$H$5,'Other Links'!$K$5,'Other Links'!$N$5,'Other Links'!$Q$5)</f>
+        <v/>
+      </c>
     </row>
     <row r="6" ht="28" customHeight="1">
-      <c r="A6" s="15" t="inlineStr">
+      <c r="A6" s="16" t="inlineStr">
         <is>
           <t>Herbaceous, Perennial</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>HE4</t>
         </is>
       </c>
-      <c r="C6" s="16" t="inlineStr">
+      <c r="C6" s="17" t="inlineStr">
         <is>
           <t>Dgenus dspecies 'Variety4'</t>
         </is>
       </c>
-      <c r="D6" s="15" t="inlineStr">
+      <c r="D6" s="16" t="inlineStr">
         <is>
           <t>COMMON NAME4</t>
         </is>
       </c>
-      <c r="E6" s="15" t="inlineStr">
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="F6" s="15" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="G6" s="15" t="inlineStr">
+      <c r="G6" s="16" t="inlineStr">
         <is>
           <t>Pink</t>
         </is>
       </c>
-      <c r="H6" s="15" t="inlineStr">
+      <c r="H6" s="16" t="inlineStr">
         <is>
           <t>Feb, Mar, Apr, May, Jun, Jul</t>
         </is>
       </c>
-      <c r="I6" s="15" t="inlineStr">
+      <c r="I6" s="16" t="inlineStr">
         <is>
           <t>Part Shade</t>
         </is>
       </c>
-      <c r="J6" s="15" t="inlineStr">
+      <c r="J6" s="16" t="inlineStr">
         <is>
           <t>Wet</t>
         </is>
       </c>
-      <c r="K6" s="15" t="inlineStr">
+      <c r="K6" s="16" t="inlineStr">
         <is>
           <t>OBL</t>
         </is>
       </c>
-      <c r="L6" s="15" t="inlineStr">
+      <c r="L6" s="16" t="inlineStr">
         <is>
           <t>Zone 5 - 9</t>
         </is>
       </c>
-      <c r="M6" s="17" t="inlineStr">
+      <c r="M6" s="18" t="inlineStr">
         <is>
           <t>Bees</t>
         </is>
       </c>
-      <c r="N6" s="17" t="inlineStr">
+      <c r="N6" s="18" t="inlineStr">
         <is>
           <t>Deer, Clay Soil</t>
         </is>
       </c>
-      <c r="O6" s="17" t="inlineStr">
+      <c r="O6" s="18" t="inlineStr">
         <is>
           <t>Soil Lorem ipsum</t>
         </is>
       </c>
-      <c r="P6" s="17" t="inlineStr">
+      <c r="P6" s="18" t="inlineStr">
         <is>
           <t>Condition Comments Lorem ipsum</t>
         </is>
       </c>
-      <c r="Q6" s="15" t="inlineStr">
+      <c r="Q6" s="16" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R6" s="17" t="inlineStr">
+      <c r="R6" s="18" t="inlineStr">
         <is>
           <t>Native Habitats Lorem ipsum</t>
         </is>
       </c>
-      <c r="S6" s="17" t="inlineStr">
+      <c r="S6" s="18" t="inlineStr">
         <is>
           <t>Culture Lorem ipsum.</t>
         </is>
       </c>
-      <c r="T6" s="17" t="inlineStr">
+      <c r="T6" s="18" t="inlineStr">
         <is>
           <t>Uses Lorem ipsum.</t>
         </is>
       </c>
-      <c r="U6" s="17" t="inlineStr">
+      <c r="U6" s="18" t="inlineStr">
         <is>
           <t>Use Ornamental: EXAPMLE, Use Wildlife: Wild., Use Food: Foods., Use Medicinal: Meds.</t>
         </is>
       </c>
-      <c r="V6" s="15" t="inlineStr">
+      <c r="V6" s="16" t="inlineStr">
         <is>
           <t>Maintenance: lorem ipsum.</t>
         </is>
       </c>
-      <c r="W6" s="15" t="inlineStr">
+      <c r="W6" s="16" t="inlineStr">
         <is>
           <t>Problems Lorem ipsum</t>
         </is>
       </c>
-      <c r="X6" s="18" t="inlineStr">
+      <c r="X6" s="19" t="inlineStr">
         <is>
           <t>http://mbg.org/dgenus</t>
         </is>
@@ -1797,35 +1828,44 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="Z6" s="18" t="inlineStr">
+      <c r="Z6" s="19" t="inlineStr">
         <is>
           <t>https://pleasantrunnursery.com/plants/dgenusdspecies</t>
         </is>
       </c>
-      <c r="AA6" s="18" t="inlineStr">
+      <c r="AA6" s="19" t="inlineStr">
         <is>
           <t>https://newmoonnursery.com/plants/dgenusdspecies</t>
         </is>
       </c>
-      <c r="AB6" s="18" t="inlineStr">
+      <c r="AB6" s="19" t="inlineStr">
         <is>
           <t>https://pinelandsnursery.com/plants/dgenusdspecies</t>
         </is>
       </c>
       <c r="AC6" s="12" t="inlineStr">
         <is>
-          <t>00010101_JC</t>
-        </is>
-      </c>
-      <c r="AD6" s="19" t="inlineStr"/>
+          <t>20250613_AN</t>
+        </is>
+      </c>
+      <c r="AD6" s="20" t="inlineStr"/>
       <c r="AE6" s="8" t="inlineStr">
         <is>
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF6" s="20" t="inlineStr"/>
-      <c r="AG6" s="20" t="inlineStr"/>
-      <c r="AH6" s="20" t="inlineStr"/>
+      <c r="AF6" s="21">
+        <f>CHOOSE(MATCH($AE6,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$6,'Other Links'!$F$6,'Other Links'!$I$6,'Other Links'!$L$6,'Other Links'!$O$6)</f>
+        <v/>
+      </c>
+      <c r="AG6" s="15">
+        <f>CHOOSE(MATCH($AE6,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$6,'Other Links'!$G$6,'Other Links'!$J$6,'Other Links'!$M$6,'Other Links'!$P$6)</f>
+        <v/>
+      </c>
+      <c r="AH6" s="21">
+        <f>CHOOSE(MATCH($AE6,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$6,'Other Links'!$H$6,'Other Links'!$K$6,'Other Links'!$N$6,'Other Links'!$Q$6)</f>
+        <v/>
+      </c>
     </row>
     <row r="7" ht="28" customHeight="1">
       <c r="A7" s="6" t="inlineStr">
@@ -1970,7 +2010,7 @@
       </c>
       <c r="AC7" s="12" t="inlineStr">
         <is>
-          <t>00010101_JC</t>
+          <t>20250613_AN</t>
         </is>
       </c>
       <c r="AD7" s="13" t="inlineStr"/>
@@ -1979,164 +2019,182 @@
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF7" s="14" t="inlineStr"/>
-      <c r="AG7" s="14" t="inlineStr"/>
-      <c r="AH7" s="14" t="inlineStr"/>
+      <c r="AF7" s="14">
+        <f>CHOOSE(MATCH($AE7,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$7,'Other Links'!$F$7,'Other Links'!$I$7,'Other Links'!$L$7,'Other Links'!$O$7)</f>
+        <v/>
+      </c>
+      <c r="AG7" s="15">
+        <f>CHOOSE(MATCH($AE7,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$7,'Other Links'!$G$7,'Other Links'!$J$7,'Other Links'!$M$7,'Other Links'!$P$7)</f>
+        <v/>
+      </c>
+      <c r="AH7" s="14">
+        <f>CHOOSE(MATCH($AE7,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$7,'Other Links'!$H$7,'Other Links'!$K$7,'Other Links'!$N$7,'Other Links'!$Q$7)</f>
+        <v/>
+      </c>
     </row>
     <row r="8" ht="28" customHeight="1">
-      <c r="A8" s="15" t="inlineStr">
+      <c r="A8" s="16" t="inlineStr">
         <is>
           <t>Ferns</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
+      <c r="B8" s="16" t="inlineStr">
         <is>
           <t>FE1</t>
         </is>
       </c>
-      <c r="C8" s="16" t="inlineStr">
+      <c r="C8" s="17" t="inlineStr">
         <is>
           <t>Fgenus fspecies 'Variety1'</t>
         </is>
       </c>
-      <c r="D8" s="15" t="inlineStr">
+      <c r="D8" s="16" t="inlineStr">
         <is>
           <t>COMMON NAME1</t>
         </is>
       </c>
-      <c r="E8" s="15" t="inlineStr">
+      <c r="E8" s="16" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="F8" s="15" t="inlineStr">
+      <c r="F8" s="16" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="G8" s="15" t="inlineStr">
+      <c r="G8" s="16" t="inlineStr">
         <is>
           <t>Orange</t>
         </is>
       </c>
-      <c r="H8" s="15" t="inlineStr">
+      <c r="H8" s="16" t="inlineStr">
         <is>
           <t>May, Jun, Jul, Aug, Sep</t>
         </is>
       </c>
-      <c r="I8" s="15" t="inlineStr">
+      <c r="I8" s="16" t="inlineStr">
         <is>
           <t>Full Sun, Part Shade</t>
         </is>
       </c>
-      <c r="J8" s="15" t="inlineStr">
+      <c r="J8" s="16" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="K8" s="15" t="inlineStr">
+      <c r="K8" s="16" t="inlineStr">
         <is>
           <t>FAC</t>
         </is>
       </c>
-      <c r="L8" s="15" t="inlineStr">
+      <c r="L8" s="16" t="inlineStr">
         <is>
           <t>Zone 5 - 9</t>
         </is>
       </c>
-      <c r="M8" s="17" t="inlineStr">
+      <c r="M8" s="18" t="inlineStr">
         <is>
           <t>Bees</t>
         </is>
       </c>
-      <c r="N8" s="17" t="inlineStr">
+      <c r="N8" s="18" t="inlineStr">
         <is>
           <t>Deer, Clay Soil</t>
         </is>
       </c>
-      <c r="O8" s="17" t="inlineStr">
+      <c r="O8" s="18" t="inlineStr">
         <is>
           <t>Soil Lorem ipsum</t>
         </is>
       </c>
-      <c r="P8" s="17" t="inlineStr">
+      <c r="P8" s="18" t="inlineStr">
         <is>
           <t>Condition Comments Lorem ipsum</t>
         </is>
       </c>
-      <c r="Q8" s="15" t="inlineStr">
+      <c r="Q8" s="16" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R8" s="17" t="inlineStr">
+      <c r="R8" s="18" t="inlineStr">
         <is>
           <t>Native Habitats Lorem ipsum</t>
         </is>
       </c>
-      <c r="S8" s="17" t="inlineStr">
+      <c r="S8" s="18" t="inlineStr">
         <is>
           <t>Culture Lorem ipsum.</t>
         </is>
       </c>
-      <c r="T8" s="17" t="inlineStr">
+      <c r="T8" s="18" t="inlineStr">
         <is>
           <t>Uses Lorem ipsum.</t>
         </is>
       </c>
-      <c r="U8" s="17" t="inlineStr">
+      <c r="U8" s="18" t="inlineStr">
         <is>
           <t>Use Ornamental: EXAPMLE, Use Wildlife: Wild., Use Food: Foods., Use Medicinal: Meds.</t>
         </is>
       </c>
-      <c r="V8" s="15" t="inlineStr">
+      <c r="V8" s="16" t="inlineStr">
         <is>
           <t>Maintenance: lorem ipsum.</t>
         </is>
       </c>
-      <c r="W8" s="15" t="inlineStr">
+      <c r="W8" s="16" t="inlineStr">
         <is>
           <t>Problems Lorem ipsum</t>
         </is>
       </c>
-      <c r="X8" s="18" t="inlineStr">
+      <c r="X8" s="19" t="inlineStr">
         <is>
           <t>http://mbg.org/fgenus</t>
         </is>
       </c>
-      <c r="Y8" s="18" t="inlineStr">
+      <c r="Y8" s="19" t="inlineStr">
         <is>
           <t>http://wildflower.org/fgenus</t>
         </is>
       </c>
-      <c r="Z8" s="18" t="inlineStr">
+      <c r="Z8" s="19" t="inlineStr">
         <is>
           <t>https://pleasantrunnursery.com/plants/fgenusfspecies</t>
         </is>
       </c>
-      <c r="AA8" s="18" t="inlineStr">
+      <c r="AA8" s="19" t="inlineStr">
         <is>
           <t>https://newmoonnursery.com/plants/fgenusfspecies</t>
         </is>
       </c>
-      <c r="AB8" s="18" t="inlineStr">
+      <c r="AB8" s="19" t="inlineStr">
         <is>
           <t>https://pinelandsnursery.com/plants/fgenusfspecies</t>
         </is>
       </c>
-      <c r="AC8" s="21">
+      <c r="AC8" s="22">
         <f>IF(AD8&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD8, "")</f>
         <v/>
       </c>
-      <c r="AD8" s="19" t="inlineStr"/>
+      <c r="AD8" s="20" t="inlineStr"/>
       <c r="AE8" s="8" t="inlineStr">
         <is>
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF8" s="20" t="inlineStr"/>
-      <c r="AG8" s="20" t="inlineStr"/>
-      <c r="AH8" s="20" t="inlineStr"/>
+      <c r="AF8" s="21">
+        <f>CHOOSE(MATCH($AE8,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$8,'Other Links'!$F$8,'Other Links'!$I$8,'Other Links'!$L$8,'Other Links'!$O$8)</f>
+        <v/>
+      </c>
+      <c r="AG8" s="15">
+        <f>CHOOSE(MATCH($AE8,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$8,'Other Links'!$G$8,'Other Links'!$J$8,'Other Links'!$M$8,'Other Links'!$P$8)</f>
+        <v/>
+      </c>
+      <c r="AH8" s="21">
+        <f>CHOOSE(MATCH($AE8,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$8,'Other Links'!$H$8,'Other Links'!$K$8,'Other Links'!$N$8,'Other Links'!$Q$8)</f>
+        <v/>
+      </c>
     </row>
     <row r="9" ht="28" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -2279,7 +2337,7 @@
           <t>https://pinelandsnursery.com/plants/ggenusgspecies</t>
         </is>
       </c>
-      <c r="AC9" s="21">
+      <c r="AC9" s="22">
         <f>IF(AD9&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD9, "")</f>
         <v/>
       </c>
@@ -2289,164 +2347,182 @@
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF9" s="14" t="inlineStr"/>
-      <c r="AG9" s="14" t="inlineStr"/>
-      <c r="AH9" s="14" t="inlineStr"/>
+      <c r="AF9" s="14">
+        <f>CHOOSE(MATCH($AE9,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$9,'Other Links'!$F$9,'Other Links'!$I$9,'Other Links'!$L$9,'Other Links'!$O$9)</f>
+        <v/>
+      </c>
+      <c r="AG9" s="15">
+        <f>CHOOSE(MATCH($AE9,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$9,'Other Links'!$G$9,'Other Links'!$J$9,'Other Links'!$M$9,'Other Links'!$P$9)</f>
+        <v/>
+      </c>
+      <c r="AH9" s="14">
+        <f>CHOOSE(MATCH($AE9,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$9,'Other Links'!$H$9,'Other Links'!$K$9,'Other Links'!$N$9,'Other Links'!$Q$9)</f>
+        <v/>
+      </c>
     </row>
     <row r="10" ht="28" customHeight="1">
-      <c r="A10" s="15" t="inlineStr">
+      <c r="A10" s="16" t="inlineStr">
         <is>
           <t>Ferns</t>
         </is>
       </c>
-      <c r="B10" s="15" t="inlineStr">
+      <c r="B10" s="16" t="inlineStr">
         <is>
           <t>FE3</t>
         </is>
       </c>
-      <c r="C10" s="16" t="inlineStr">
+      <c r="C10" s="17" t="inlineStr">
         <is>
           <t>Hgenus hspecies 'Variety3'</t>
         </is>
       </c>
-      <c r="D10" s="15" t="inlineStr">
+      <c r="D10" s="16" t="inlineStr">
         <is>
           <t>COMMON NAME3</t>
         </is>
       </c>
-      <c r="E10" s="15" t="inlineStr">
+      <c r="E10" s="16" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="F10" s="15" t="inlineStr">
+      <c r="F10" s="16" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="G10" s="15" t="inlineStr">
+      <c r="G10" s="16" t="inlineStr">
         <is>
           <t>White, Pink</t>
         </is>
       </c>
-      <c r="H10" s="15" t="inlineStr">
+      <c r="H10" s="16" t="inlineStr">
         <is>
           <t>Jul, Aug, Sep</t>
         </is>
       </c>
-      <c r="I10" s="15" t="inlineStr">
+      <c r="I10" s="16" t="inlineStr">
         <is>
           <t>Full Sun</t>
         </is>
       </c>
-      <c r="J10" s="15" t="inlineStr">
+      <c r="J10" s="16" t="inlineStr">
         <is>
           <t>Dry, Medium</t>
         </is>
       </c>
-      <c r="K10" s="15" t="inlineStr">
+      <c r="K10" s="16" t="inlineStr">
         <is>
           <t>FACW</t>
         </is>
       </c>
-      <c r="L10" s="15" t="inlineStr">
+      <c r="L10" s="16" t="inlineStr">
         <is>
           <t>Zone 5 - 9</t>
         </is>
       </c>
-      <c r="M10" s="17" t="inlineStr">
+      <c r="M10" s="18" t="inlineStr">
         <is>
           <t>Bees</t>
         </is>
       </c>
-      <c r="N10" s="17" t="inlineStr">
+      <c r="N10" s="18" t="inlineStr">
         <is>
           <t>Deer, Drought, Clay Soil, Dry Soil, Shallow-Rocky Soil</t>
         </is>
       </c>
-      <c r="O10" s="17" t="inlineStr">
+      <c r="O10" s="18" t="inlineStr">
         <is>
           <t>Soil Lorem ipsum</t>
         </is>
       </c>
-      <c r="P10" s="17" t="inlineStr">
+      <c r="P10" s="18" t="inlineStr">
         <is>
           <t>Condition Comments Lorem ipsum</t>
         </is>
       </c>
-      <c r="Q10" s="15" t="inlineStr">
+      <c r="Q10" s="16" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R10" s="17" t="inlineStr">
+      <c r="R10" s="18" t="inlineStr">
         <is>
           <t>Well-drained limestone, sand, clay, loam. Rocky, open woods; thickets; prairies.</t>
         </is>
       </c>
-      <c r="S10" s="17" t="inlineStr">
+      <c r="S10" s="18" t="inlineStr">
         <is>
           <t>Culture Lorem ipsum.</t>
         </is>
       </c>
-      <c r="T10" s="17" t="inlineStr">
+      <c r="T10" s="18" t="inlineStr">
         <is>
           <t>Uses Lorem ipsum.</t>
         </is>
       </c>
-      <c r="U10" s="17" t="inlineStr">
+      <c r="U10" s="18" t="inlineStr">
         <is>
           <t>Use Ornamental: EXAPMLE, Use Wildlife: Wild., Use Food: Foods., Use Medicinal: Meds.</t>
         </is>
       </c>
-      <c r="V10" s="15" t="inlineStr">
+      <c r="V10" s="16" t="inlineStr">
         <is>
           <t>Maintenance: lorem ipsum.</t>
         </is>
       </c>
-      <c r="W10" s="15" t="inlineStr">
+      <c r="W10" s="16" t="inlineStr">
         <is>
           <t>Problems Lorem ipsum</t>
         </is>
       </c>
-      <c r="X10" s="18" t="inlineStr">
+      <c r="X10" s="19" t="inlineStr">
         <is>
           <t>http://mbg.org/hgenus</t>
         </is>
       </c>
-      <c r="Y10" s="18" t="inlineStr">
+      <c r="Y10" s="19" t="inlineStr">
         <is>
           <t>http://wildflower.org/hgenus</t>
         </is>
       </c>
-      <c r="Z10" s="18" t="inlineStr">
+      <c r="Z10" s="19" t="inlineStr">
         <is>
           <t>https://pleasantrunnursery.com/plants/hgenushspecies</t>
         </is>
       </c>
-      <c r="AA10" s="18" t="inlineStr">
+      <c r="AA10" s="19" t="inlineStr">
         <is>
           <t>https://newmoonnursery.com/plants/hgenushspecies</t>
         </is>
       </c>
-      <c r="AB10" s="18" t="inlineStr">
+      <c r="AB10" s="19" t="inlineStr">
         <is>
           <t>https://pinelandsnursery.com/plants/hgenushspecies</t>
         </is>
       </c>
-      <c r="AC10" s="21">
+      <c r="AC10" s="22">
         <f>IF(AD10&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD10, "")</f>
         <v/>
       </c>
-      <c r="AD10" s="19" t="inlineStr"/>
+      <c r="AD10" s="20" t="inlineStr"/>
       <c r="AE10" s="8" t="inlineStr">
         <is>
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF10" s="20" t="inlineStr"/>
-      <c r="AG10" s="20" t="inlineStr"/>
-      <c r="AH10" s="20" t="inlineStr"/>
+      <c r="AF10" s="21">
+        <f>CHOOSE(MATCH($AE10,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$10,'Other Links'!$F$10,'Other Links'!$I$10,'Other Links'!$L$10,'Other Links'!$O$10)</f>
+        <v/>
+      </c>
+      <c r="AG10" s="15">
+        <f>CHOOSE(MATCH($AE10,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$10,'Other Links'!$G$10,'Other Links'!$J$10,'Other Links'!$M$10,'Other Links'!$P$10)</f>
+        <v/>
+      </c>
+      <c r="AH10" s="21">
+        <f>CHOOSE(MATCH($AE10,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$10,'Other Links'!$H$10,'Other Links'!$K$10,'Other Links'!$N$10,'Other Links'!$Q$10)</f>
+        <v/>
+      </c>
     </row>
     <row r="11" ht="28" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -2589,7 +2665,7 @@
           <t>https://pinelandsnursery.com/plants/igenusispecies</t>
         </is>
       </c>
-      <c r="AC11" s="21">
+      <c r="AC11" s="22">
         <f>IF(AD11&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD11, "")</f>
         <v/>
       </c>
@@ -2599,164 +2675,182 @@
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF11" s="14" t="inlineStr"/>
-      <c r="AG11" s="14" t="inlineStr"/>
-      <c r="AH11" s="14" t="inlineStr"/>
+      <c r="AF11" s="14">
+        <f>CHOOSE(MATCH($AE11,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$11,'Other Links'!$F$11,'Other Links'!$I$11,'Other Links'!$L$11,'Other Links'!$O$11)</f>
+        <v/>
+      </c>
+      <c r="AG11" s="15">
+        <f>CHOOSE(MATCH($AE11,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$11,'Other Links'!$G$11,'Other Links'!$J$11,'Other Links'!$M$11,'Other Links'!$P$11)</f>
+        <v/>
+      </c>
+      <c r="AH11" s="14">
+        <f>CHOOSE(MATCH($AE11,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$11,'Other Links'!$H$11,'Other Links'!$K$11,'Other Links'!$N$11,'Other Links'!$Q$11)</f>
+        <v/>
+      </c>
     </row>
     <row r="12" ht="28" customHeight="1">
-      <c r="A12" s="15" t="inlineStr">
+      <c r="A12" s="16" t="inlineStr">
         <is>
           <t>Ferns</t>
         </is>
       </c>
-      <c r="B12" s="15" t="inlineStr">
+      <c r="B12" s="16" t="inlineStr">
         <is>
           <t>FE5</t>
         </is>
       </c>
-      <c r="C12" s="16" t="inlineStr">
+      <c r="C12" s="17" t="inlineStr">
         <is>
           <t>Jgenus jspecies 'Variety5'</t>
         </is>
       </c>
-      <c r="D12" s="15" t="inlineStr">
+      <c r="D12" s="16" t="inlineStr">
         <is>
           <t>COMMON NAME5</t>
         </is>
       </c>
-      <c r="E12" s="15" t="inlineStr">
+      <c r="E12" s="16" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="F12" s="15" t="inlineStr">
+      <c r="F12" s="16" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="G12" s="15" t="inlineStr">
+      <c r="G12" s="16" t="inlineStr">
         <is>
           <t>Pink, Purple</t>
         </is>
       </c>
-      <c r="H12" s="15" t="inlineStr">
+      <c r="H12" s="16" t="inlineStr">
         <is>
           <t>Apr, May, Jun, Jul, Aug, Sep</t>
         </is>
       </c>
-      <c r="I12" s="15" t="inlineStr">
+      <c r="I12" s="16" t="inlineStr">
         <is>
           <t>Full Sun</t>
         </is>
       </c>
-      <c r="J12" s="15" t="inlineStr">
+      <c r="J12" s="16" t="inlineStr">
         <is>
           <t>Wet</t>
         </is>
       </c>
-      <c r="K12" s="15" t="inlineStr">
+      <c r="K12" s="16" t="inlineStr">
         <is>
           <t>OBL</t>
         </is>
       </c>
-      <c r="L12" s="15" t="inlineStr">
+      <c r="L12" s="16" t="inlineStr">
         <is>
           <t>Zone 5 - 9</t>
         </is>
       </c>
-      <c r="M12" s="17" t="inlineStr">
+      <c r="M12" s="18" t="inlineStr">
         <is>
           <t>Bees</t>
         </is>
       </c>
-      <c r="N12" s="17" t="inlineStr">
+      <c r="N12" s="18" t="inlineStr">
         <is>
           <t>Deer, Drought, Dry Soil, Shallow-Rocky Soil</t>
         </is>
       </c>
-      <c r="O12" s="17" t="inlineStr">
+      <c r="O12" s="18" t="inlineStr">
         <is>
           <t>Soil Lorem ipsum</t>
         </is>
       </c>
-      <c r="P12" s="17" t="inlineStr">
+      <c r="P12" s="18" t="inlineStr">
         <is>
           <t>Condition Comments Lorem ipsum</t>
         </is>
       </c>
-      <c r="Q12" s="15" t="inlineStr">
+      <c r="Q12" s="16" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R12" s="17" t="inlineStr">
+      <c r="R12" s="18" t="inlineStr">
         <is>
           <t>Native Habitats Lorem ipsum</t>
         </is>
       </c>
-      <c r="S12" s="17" t="inlineStr">
+      <c r="S12" s="18" t="inlineStr">
         <is>
           <t>Culture Lorem ipsum.</t>
         </is>
       </c>
-      <c r="T12" s="17" t="inlineStr">
+      <c r="T12" s="18" t="inlineStr">
         <is>
           <t>Uses Lorem ipsum.</t>
         </is>
       </c>
-      <c r="U12" s="17" t="inlineStr">
+      <c r="U12" s="18" t="inlineStr">
         <is>
           <t>Use Ornamental: EXAPMLE, Use Wildlife: Wild., Use Food: Foods., Use Medicinal: Meds.</t>
         </is>
       </c>
-      <c r="V12" s="15" t="inlineStr">
+      <c r="V12" s="16" t="inlineStr">
         <is>
           <t>Maintenance: lorem ipsum.</t>
         </is>
       </c>
-      <c r="W12" s="15" t="inlineStr">
+      <c r="W12" s="16" t="inlineStr">
         <is>
           <t>Problems Lorem ipsum</t>
         </is>
       </c>
-      <c r="X12" s="18" t="inlineStr">
+      <c r="X12" s="19" t="inlineStr">
         <is>
           <t>http://mbg.org/jgenus</t>
         </is>
       </c>
-      <c r="Y12" s="18" t="inlineStr">
+      <c r="Y12" s="19" t="inlineStr">
         <is>
           <t>http://wildflower.org/jgenus</t>
         </is>
       </c>
-      <c r="Z12" s="18" t="inlineStr">
+      <c r="Z12" s="19" t="inlineStr">
         <is>
           <t>https://pleasantrunnursery.com/plants/jgenusjspecies</t>
         </is>
       </c>
-      <c r="AA12" s="18" t="inlineStr">
+      <c r="AA12" s="19" t="inlineStr">
         <is>
           <t>https://newmoonnursery.com/plants/jgenusjspecies</t>
         </is>
       </c>
-      <c r="AB12" s="18" t="inlineStr">
+      <c r="AB12" s="19" t="inlineStr">
         <is>
           <t>https://pinelandsnursery.com/plants/jgenusjspecies</t>
         </is>
       </c>
-      <c r="AC12" s="21">
+      <c r="AC12" s="22">
         <f>IF(AD12&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD12, "")</f>
         <v/>
       </c>
-      <c r="AD12" s="19" t="inlineStr"/>
+      <c r="AD12" s="20" t="inlineStr"/>
       <c r="AE12" s="8" t="inlineStr">
         <is>
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF12" s="20" t="inlineStr"/>
-      <c r="AG12" s="20" t="inlineStr"/>
-      <c r="AH12" s="20" t="inlineStr"/>
+      <c r="AF12" s="21">
+        <f>CHOOSE(MATCH($AE12,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$12,'Other Links'!$F$12,'Other Links'!$I$12,'Other Links'!$L$12,'Other Links'!$O$12)</f>
+        <v/>
+      </c>
+      <c r="AG12" s="15">
+        <f>CHOOSE(MATCH($AE12,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$12,'Other Links'!$G$12,'Other Links'!$J$12,'Other Links'!$M$12,'Other Links'!$P$12)</f>
+        <v/>
+      </c>
+      <c r="AH12" s="21">
+        <f>CHOOSE(MATCH($AE12,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$12,'Other Links'!$H$12,'Other Links'!$K$12,'Other Links'!$N$12,'Other Links'!$Q$12)</f>
+        <v/>
+      </c>
     </row>
     <row r="13" ht="28" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
@@ -2899,7 +2993,7 @@
           <t>https://pinelandsnursery.com/plants/kgenuskspecies</t>
         </is>
       </c>
-      <c r="AC13" s="21">
+      <c r="AC13" s="22">
         <f>IF(AD13&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD13, "")</f>
         <v/>
       </c>
@@ -2909,164 +3003,182 @@
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF13" s="14" t="inlineStr"/>
-      <c r="AG13" s="14" t="inlineStr"/>
-      <c r="AH13" s="14" t="inlineStr"/>
+      <c r="AF13" s="14">
+        <f>CHOOSE(MATCH($AE13,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$13,'Other Links'!$F$13,'Other Links'!$I$13,'Other Links'!$L$13,'Other Links'!$O$13)</f>
+        <v/>
+      </c>
+      <c r="AG13" s="15">
+        <f>CHOOSE(MATCH($AE13,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$13,'Other Links'!$G$13,'Other Links'!$J$13,'Other Links'!$M$13,'Other Links'!$P$13)</f>
+        <v/>
+      </c>
+      <c r="AH13" s="14">
+        <f>CHOOSE(MATCH($AE13,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$13,'Other Links'!$H$13,'Other Links'!$K$13,'Other Links'!$N$13,'Other Links'!$Q$13)</f>
+        <v/>
+      </c>
     </row>
     <row r="14" ht="28" customHeight="1">
-      <c r="A14" s="15" t="inlineStr">
+      <c r="A14" s="16" t="inlineStr">
         <is>
           <t>Grasses, Sedges, and Rushes</t>
         </is>
       </c>
-      <c r="B14" s="15" t="inlineStr">
+      <c r="B14" s="16" t="inlineStr">
         <is>
           <t>GR2</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="17" t="inlineStr">
         <is>
           <t>Lgenus lspecies 'Variety2'</t>
         </is>
       </c>
-      <c r="D14" s="15" t="inlineStr">
+      <c r="D14" s="16" t="inlineStr">
         <is>
           <t>COMMON NAME2</t>
         </is>
       </c>
-      <c r="E14" s="15" t="inlineStr">
+      <c r="E14" s="16" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="F14" s="15" t="inlineStr">
+      <c r="F14" s="16" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="G14" s="15" t="inlineStr">
+      <c r="G14" s="16" t="inlineStr">
         <is>
           <t>Purple</t>
         </is>
       </c>
-      <c r="H14" s="15" t="inlineStr">
+      <c r="H14" s="16" t="inlineStr">
         <is>
           <t>Jun, Jul, Aug, Sep, Oct, Nov</t>
         </is>
       </c>
-      <c r="I14" s="15" t="inlineStr">
+      <c r="I14" s="16" t="inlineStr">
         <is>
           <t>Part Shade, Full Shade</t>
         </is>
       </c>
-      <c r="J14" s="15" t="inlineStr">
+      <c r="J14" s="16" t="inlineStr">
         <is>
           <t>Medium, Wet</t>
         </is>
       </c>
-      <c r="K14" s="15" t="inlineStr">
+      <c r="K14" s="16" t="inlineStr">
         <is>
           <t>FAC</t>
         </is>
       </c>
-      <c r="L14" s="15" t="inlineStr">
+      <c r="L14" s="16" t="inlineStr">
         <is>
           <t>Zone 5 - 9</t>
         </is>
       </c>
-      <c r="M14" s="17" t="inlineStr">
+      <c r="M14" s="18" t="inlineStr">
         <is>
           <t>Bees</t>
         </is>
       </c>
-      <c r="N14" s="17" t="inlineStr">
+      <c r="N14" s="18" t="inlineStr">
         <is>
           <t>Deer, Clay Soil</t>
         </is>
       </c>
-      <c r="O14" s="17" t="inlineStr">
+      <c r="O14" s="18" t="inlineStr">
         <is>
           <t>Soil Lorem ipsum</t>
         </is>
       </c>
-      <c r="P14" s="17" t="inlineStr">
+      <c r="P14" s="18" t="inlineStr">
         <is>
           <t>Condition Comments Lorem ipsum</t>
         </is>
       </c>
-      <c r="Q14" s="15" t="inlineStr">
+      <c r="Q14" s="16" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R14" s="17" t="inlineStr">
+      <c r="R14" s="18" t="inlineStr">
         <is>
           <t>Native Habitats Lorem ipsum</t>
         </is>
       </c>
-      <c r="S14" s="17" t="inlineStr">
+      <c r="S14" s="18" t="inlineStr">
         <is>
           <t>Culture Lorem ipsum.</t>
         </is>
       </c>
-      <c r="T14" s="17" t="inlineStr">
+      <c r="T14" s="18" t="inlineStr">
         <is>
           <t>Uses Lorem ipsum.</t>
         </is>
       </c>
-      <c r="U14" s="17" t="inlineStr">
+      <c r="U14" s="18" t="inlineStr">
         <is>
           <t>Use Ornamental: EXAPMLE, Use Wildlife: Wild., Use Food: Foods., Use Medicinal: Meds.</t>
         </is>
       </c>
-      <c r="V14" s="15" t="inlineStr">
+      <c r="V14" s="16" t="inlineStr">
         <is>
           <t>Maintenance: lorem ipsum.</t>
         </is>
       </c>
-      <c r="W14" s="15" t="inlineStr">
+      <c r="W14" s="16" t="inlineStr">
         <is>
           <t>Problems Lorem ipsum</t>
         </is>
       </c>
-      <c r="X14" s="18" t="inlineStr">
+      <c r="X14" s="19" t="inlineStr">
         <is>
           <t>http://mbg.org/lgenus</t>
         </is>
       </c>
-      <c r="Y14" s="18" t="inlineStr">
+      <c r="Y14" s="19" t="inlineStr">
         <is>
           <t>http://wildflower.org/lgenus</t>
         </is>
       </c>
-      <c r="Z14" s="18" t="inlineStr">
+      <c r="Z14" s="19" t="inlineStr">
         <is>
           <t>https://pleasantrunnursery.com/plants/lgenuslspecies</t>
         </is>
       </c>
-      <c r="AA14" s="18" t="inlineStr">
+      <c r="AA14" s="19" t="inlineStr">
         <is>
           <t>https://newmoonnursery.com/plants/lgenuslspecies</t>
         </is>
       </c>
-      <c r="AB14" s="18" t="inlineStr">
+      <c r="AB14" s="19" t="inlineStr">
         <is>
           <t>https://pinelandsnursery.com/plants/lgenuslspecies</t>
         </is>
       </c>
-      <c r="AC14" s="21">
+      <c r="AC14" s="22">
         <f>IF(AD14&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD14, "")</f>
         <v/>
       </c>
-      <c r="AD14" s="19" t="inlineStr"/>
+      <c r="AD14" s="20" t="inlineStr"/>
       <c r="AE14" s="8" t="inlineStr">
         <is>
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF14" s="20" t="inlineStr"/>
-      <c r="AG14" s="20" t="inlineStr"/>
-      <c r="AH14" s="20" t="inlineStr"/>
+      <c r="AF14" s="21">
+        <f>CHOOSE(MATCH($AE14,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$14,'Other Links'!$F$14,'Other Links'!$I$14,'Other Links'!$L$14,'Other Links'!$O$14)</f>
+        <v/>
+      </c>
+      <c r="AG14" s="15">
+        <f>CHOOSE(MATCH($AE14,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$14,'Other Links'!$G$14,'Other Links'!$J$14,'Other Links'!$M$14,'Other Links'!$P$14)</f>
+        <v/>
+      </c>
+      <c r="AH14" s="21">
+        <f>CHOOSE(MATCH($AE14,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$14,'Other Links'!$H$14,'Other Links'!$K$14,'Other Links'!$N$14,'Other Links'!$Q$14)</f>
+        <v/>
+      </c>
     </row>
     <row r="15" ht="28" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
@@ -3209,7 +3321,7 @@
           <t>https://pinelandsnursery.com/plants/mgenusmspecies</t>
         </is>
       </c>
-      <c r="AC15" s="21">
+      <c r="AC15" s="22">
         <f>IF(AD15&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD15, "")</f>
         <v/>
       </c>
@@ -3219,164 +3331,182 @@
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF15" s="14" t="inlineStr"/>
-      <c r="AG15" s="14" t="inlineStr"/>
-      <c r="AH15" s="14" t="inlineStr"/>
+      <c r="AF15" s="14">
+        <f>CHOOSE(MATCH($AE15,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$15,'Other Links'!$F$15,'Other Links'!$I$15,'Other Links'!$L$15,'Other Links'!$O$15)</f>
+        <v/>
+      </c>
+      <c r="AG15" s="15">
+        <f>CHOOSE(MATCH($AE15,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$15,'Other Links'!$G$15,'Other Links'!$J$15,'Other Links'!$M$15,'Other Links'!$P$15)</f>
+        <v/>
+      </c>
+      <c r="AH15" s="14">
+        <f>CHOOSE(MATCH($AE15,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$15,'Other Links'!$H$15,'Other Links'!$K$15,'Other Links'!$N$15,'Other Links'!$Q$15)</f>
+        <v/>
+      </c>
     </row>
     <row r="16" ht="28" customHeight="1">
-      <c r="A16" s="15" t="inlineStr">
+      <c r="A16" s="16" t="inlineStr">
         <is>
           <t>Grasses, Sedges, and Rushes</t>
         </is>
       </c>
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="16" t="inlineStr">
         <is>
           <t>GR4</t>
         </is>
       </c>
-      <c r="C16" s="16" t="inlineStr">
+      <c r="C16" s="17" t="inlineStr">
         <is>
           <t>Ngenus nspecies 'Variety4'</t>
         </is>
       </c>
-      <c r="D16" s="15" t="inlineStr">
+      <c r="D16" s="16" t="inlineStr">
         <is>
           <t>COMMON NAME4</t>
         </is>
       </c>
-      <c r="E16" s="15" t="inlineStr">
+      <c r="E16" s="16" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="F16" s="15" t="inlineStr">
+      <c r="F16" s="16" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="G16" s="15" t="inlineStr">
+      <c r="G16" s="16" t="inlineStr">
         <is>
           <t>White, Green, Brown</t>
         </is>
       </c>
-      <c r="H16" s="15" t="inlineStr">
+      <c r="H16" s="16" t="inlineStr">
         <is>
           <t>Jun, Jul, Aug, Sep</t>
         </is>
       </c>
-      <c r="I16" s="15" t="inlineStr">
+      <c r="I16" s="16" t="inlineStr">
         <is>
           <t>Part Shade</t>
         </is>
       </c>
-      <c r="J16" s="15" t="inlineStr">
+      <c r="J16" s="16" t="inlineStr">
         <is>
           <t>Wet</t>
         </is>
       </c>
-      <c r="K16" s="15" t="inlineStr">
+      <c r="K16" s="16" t="inlineStr">
         <is>
           <t>FACW</t>
         </is>
       </c>
-      <c r="L16" s="15" t="inlineStr">
+      <c r="L16" s="16" t="inlineStr">
         <is>
           <t>Zone 5 - 9</t>
         </is>
       </c>
-      <c r="M16" s="17" t="inlineStr">
+      <c r="M16" s="18" t="inlineStr">
         <is>
           <t>Bees</t>
         </is>
       </c>
-      <c r="N16" s="17" t="inlineStr">
+      <c r="N16" s="18" t="inlineStr">
         <is>
           <t>Deer, Clay Soil</t>
         </is>
       </c>
-      <c r="O16" s="17" t="inlineStr">
+      <c r="O16" s="18" t="inlineStr">
         <is>
           <t>Soil Lorem ipsum</t>
         </is>
       </c>
-      <c r="P16" s="17" t="inlineStr">
+      <c r="P16" s="18" t="inlineStr">
         <is>
           <t>Condition Comments Lorem ipsum</t>
         </is>
       </c>
-      <c r="Q16" s="15" t="inlineStr">
+      <c r="Q16" s="16" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R16" s="17" t="inlineStr">
+      <c r="R16" s="18" t="inlineStr">
         <is>
           <t>Native Habitats Lorem ipsum</t>
         </is>
       </c>
-      <c r="S16" s="17" t="inlineStr">
+      <c r="S16" s="18" t="inlineStr">
         <is>
           <t>Culture Lorem ipsum.</t>
         </is>
       </c>
-      <c r="T16" s="17" t="inlineStr">
+      <c r="T16" s="18" t="inlineStr">
         <is>
           <t>Uses Lorem ipsum.</t>
         </is>
       </c>
-      <c r="U16" s="17" t="inlineStr">
+      <c r="U16" s="18" t="inlineStr">
         <is>
           <t>Use Ornamental: EXAPMLE, Use Wildlife: Wild., Use Food: Foods., Use Medicinal: Meds.</t>
         </is>
       </c>
-      <c r="V16" s="15" t="inlineStr">
+      <c r="V16" s="16" t="inlineStr">
         <is>
           <t>Maintenance: lorem ipsum.</t>
         </is>
       </c>
-      <c r="W16" s="15" t="inlineStr">
+      <c r="W16" s="16" t="inlineStr">
         <is>
           <t>Problems Lorem ipsum</t>
         </is>
       </c>
-      <c r="X16" s="18" t="inlineStr">
+      <c r="X16" s="19" t="inlineStr">
         <is>
           <t>http://mbg.org/ngenus</t>
         </is>
       </c>
-      <c r="Y16" s="18" t="inlineStr">
+      <c r="Y16" s="19" t="inlineStr">
         <is>
           <t>http://wildflower.org/ngenus</t>
         </is>
       </c>
-      <c r="Z16" s="18" t="inlineStr">
+      <c r="Z16" s="19" t="inlineStr">
         <is>
           <t>https://pleasantrunnursery.com/plants/ngenusnspecies</t>
         </is>
       </c>
-      <c r="AA16" s="18" t="inlineStr">
+      <c r="AA16" s="19" t="inlineStr">
         <is>
           <t>https://newmoonnursery.com/plants/ngenusnspecies</t>
         </is>
       </c>
-      <c r="AB16" s="18" t="inlineStr">
+      <c r="AB16" s="19" t="inlineStr">
         <is>
           <t>https://pinelandsnursery.com/plants/ngenusnspecies</t>
         </is>
       </c>
-      <c r="AC16" s="21">
+      <c r="AC16" s="22">
         <f>IF(AD16&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD16, "")</f>
         <v/>
       </c>
-      <c r="AD16" s="19" t="inlineStr"/>
+      <c r="AD16" s="20" t="inlineStr"/>
       <c r="AE16" s="8" t="inlineStr">
         <is>
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF16" s="20" t="inlineStr"/>
-      <c r="AG16" s="20" t="inlineStr"/>
-      <c r="AH16" s="20" t="inlineStr"/>
+      <c r="AF16" s="21">
+        <f>CHOOSE(MATCH($AE16,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$16,'Other Links'!$F$16,'Other Links'!$I$16,'Other Links'!$L$16,'Other Links'!$O$16)</f>
+        <v/>
+      </c>
+      <c r="AG16" s="15">
+        <f>CHOOSE(MATCH($AE16,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$16,'Other Links'!$G$16,'Other Links'!$J$16,'Other Links'!$M$16,'Other Links'!$P$16)</f>
+        <v/>
+      </c>
+      <c r="AH16" s="21">
+        <f>CHOOSE(MATCH($AE16,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$16,'Other Links'!$H$16,'Other Links'!$K$16,'Other Links'!$N$16,'Other Links'!$Q$16)</f>
+        <v/>
+      </c>
     </row>
     <row r="17" ht="28" customHeight="1">
       <c r="A17" s="6" t="inlineStr">
@@ -3519,7 +3649,7 @@
           <t>https://pinelandsnursery.com/plants/ogenusospecies</t>
         </is>
       </c>
-      <c r="AC17" s="21">
+      <c r="AC17" s="22">
         <f>IF(AD17&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD17, "")</f>
         <v/>
       </c>
@@ -3529,164 +3659,182 @@
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF17" s="14" t="inlineStr"/>
-      <c r="AG17" s="14" t="inlineStr"/>
-      <c r="AH17" s="14" t="inlineStr"/>
+      <c r="AF17" s="14">
+        <f>CHOOSE(MATCH($AE17,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$17,'Other Links'!$F$17,'Other Links'!$I$17,'Other Links'!$L$17,'Other Links'!$O$17)</f>
+        <v/>
+      </c>
+      <c r="AG17" s="15">
+        <f>CHOOSE(MATCH($AE17,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$17,'Other Links'!$G$17,'Other Links'!$J$17,'Other Links'!$M$17,'Other Links'!$P$17)</f>
+        <v/>
+      </c>
+      <c r="AH17" s="14">
+        <f>CHOOSE(MATCH($AE17,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$17,'Other Links'!$H$17,'Other Links'!$K$17,'Other Links'!$N$17,'Other Links'!$Q$17)</f>
+        <v/>
+      </c>
     </row>
     <row r="18" ht="28" customHeight="1">
-      <c r="A18" s="15" t="inlineStr">
+      <c r="A18" s="16" t="inlineStr">
         <is>
           <t>Shrubs</t>
         </is>
       </c>
-      <c r="B18" s="15" t="inlineStr">
+      <c r="B18" s="16" t="inlineStr">
         <is>
           <t>SH1</t>
         </is>
       </c>
-      <c r="C18" s="16" t="inlineStr">
+      <c r="C18" s="17" t="inlineStr">
         <is>
           <t>Pgenus pspecies 'Variety1'</t>
         </is>
       </c>
-      <c r="D18" s="15" t="inlineStr">
+      <c r="D18" s="16" t="inlineStr">
         <is>
           <t>COMMON NAME1</t>
         </is>
       </c>
-      <c r="E18" s="15" t="inlineStr">
+      <c r="E18" s="16" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="F18" s="15" t="inlineStr">
+      <c r="F18" s="16" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="G18" s="15" t="inlineStr">
+      <c r="G18" s="16" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="H18" s="15" t="inlineStr">
+      <c r="H18" s="16" t="inlineStr">
         <is>
           <t>Jul, Aug, Sep, Oct</t>
         </is>
       </c>
-      <c r="I18" s="15" t="inlineStr">
+      <c r="I18" s="16" t="inlineStr">
         <is>
           <t>Full Sun, Part Shade</t>
         </is>
       </c>
-      <c r="J18" s="15" t="inlineStr">
+      <c r="J18" s="16" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="K18" s="15" t="inlineStr">
+      <c r="K18" s="16" t="inlineStr">
         <is>
           <t>OBL</t>
         </is>
       </c>
-      <c r="L18" s="15" t="inlineStr">
+      <c r="L18" s="16" t="inlineStr">
         <is>
           <t>Zone 5 - 9</t>
         </is>
       </c>
-      <c r="M18" s="17" t="inlineStr">
+      <c r="M18" s="18" t="inlineStr">
         <is>
           <t>Bees</t>
         </is>
       </c>
-      <c r="N18" s="17" t="inlineStr">
+      <c r="N18" s="18" t="inlineStr">
         <is>
           <t>Deer, Drought, Dry Soil, Shallow-Rocky Soil</t>
         </is>
       </c>
-      <c r="O18" s="17" t="inlineStr">
+      <c r="O18" s="18" t="inlineStr">
         <is>
           <t>Soil Lorem ipsum</t>
         </is>
       </c>
-      <c r="P18" s="17" t="inlineStr">
+      <c r="P18" s="18" t="inlineStr">
         <is>
           <t>Condition Comments Lorem ipsum</t>
         </is>
       </c>
-      <c r="Q18" s="15" t="inlineStr">
+      <c r="Q18" s="16" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R18" s="17" t="inlineStr">
+      <c r="R18" s="18" t="inlineStr">
         <is>
           <t>Moist, open areas along streams &amp; ponds; wet meadows</t>
         </is>
       </c>
-      <c r="S18" s="17" t="inlineStr">
+      <c r="S18" s="18" t="inlineStr">
         <is>
           <t>Culture Lorem ipsum.</t>
         </is>
       </c>
-      <c r="T18" s="17" t="inlineStr">
+      <c r="T18" s="18" t="inlineStr">
         <is>
           <t>Uses Lorem ipsum.</t>
         </is>
       </c>
-      <c r="U18" s="17" t="inlineStr">
+      <c r="U18" s="18" t="inlineStr">
         <is>
           <t>Use Ornamental: EXAPMLE, Use Wildlife: Wild., Use Food: Foods., Use Medicinal: Meds.</t>
         </is>
       </c>
-      <c r="V18" s="15" t="inlineStr">
+      <c r="V18" s="16" t="inlineStr">
         <is>
           <t>Maintenance: lorem ipsum.</t>
         </is>
       </c>
-      <c r="W18" s="15" t="inlineStr">
+      <c r="W18" s="16" t="inlineStr">
         <is>
           <t>Problems Lorem ipsum</t>
         </is>
       </c>
-      <c r="X18" s="18" t="inlineStr">
+      <c r="X18" s="19" t="inlineStr">
         <is>
           <t>http://mbg.org/pgenus</t>
         </is>
       </c>
-      <c r="Y18" s="18" t="inlineStr">
+      <c r="Y18" s="19" t="inlineStr">
         <is>
           <t>http://wildflower.org/pgenus</t>
         </is>
       </c>
-      <c r="Z18" s="18" t="inlineStr">
+      <c r="Z18" s="19" t="inlineStr">
         <is>
           <t>https://pleasantrunnursery.com/plants/pgenuspspecies</t>
         </is>
       </c>
-      <c r="AA18" s="18" t="inlineStr">
+      <c r="AA18" s="19" t="inlineStr">
         <is>
           <t>https://newmoonnursery.com/plants/pgenuspspecies</t>
         </is>
       </c>
-      <c r="AB18" s="18" t="inlineStr">
+      <c r="AB18" s="19" t="inlineStr">
         <is>
           <t>https://pinelandsnursery.com/plants/pgenuspspecies</t>
         </is>
       </c>
-      <c r="AC18" s="21">
+      <c r="AC18" s="22">
         <f>IF(AD18&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD18, "")</f>
         <v/>
       </c>
-      <c r="AD18" s="19" t="inlineStr"/>
+      <c r="AD18" s="20" t="inlineStr"/>
       <c r="AE18" s="8" t="inlineStr">
         <is>
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF18" s="20" t="inlineStr"/>
-      <c r="AG18" s="20" t="inlineStr"/>
-      <c r="AH18" s="20" t="inlineStr"/>
+      <c r="AF18" s="21">
+        <f>CHOOSE(MATCH($AE18,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$18,'Other Links'!$F$18,'Other Links'!$I$18,'Other Links'!$L$18,'Other Links'!$O$18)</f>
+        <v/>
+      </c>
+      <c r="AG18" s="15">
+        <f>CHOOSE(MATCH($AE18,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$18,'Other Links'!$G$18,'Other Links'!$J$18,'Other Links'!$M$18,'Other Links'!$P$18)</f>
+        <v/>
+      </c>
+      <c r="AH18" s="21">
+        <f>CHOOSE(MATCH($AE18,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$18,'Other Links'!$H$18,'Other Links'!$K$18,'Other Links'!$N$18,'Other Links'!$Q$18)</f>
+        <v/>
+      </c>
     </row>
     <row r="19" ht="28" customHeight="1">
       <c r="A19" s="6" t="inlineStr">
@@ -3829,7 +3977,7 @@
           <t>https://pinelandsnursery.com/plants/qgenusqspecies</t>
         </is>
       </c>
-      <c r="AC19" s="21">
+      <c r="AC19" s="22">
         <f>IF(AD19&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD19, "")</f>
         <v/>
       </c>
@@ -3839,164 +3987,182 @@
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF19" s="14" t="inlineStr"/>
-      <c r="AG19" s="14" t="inlineStr"/>
-      <c r="AH19" s="14" t="inlineStr"/>
+      <c r="AF19" s="14">
+        <f>CHOOSE(MATCH($AE19,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$19,'Other Links'!$F$19,'Other Links'!$I$19,'Other Links'!$L$19,'Other Links'!$O$19)</f>
+        <v/>
+      </c>
+      <c r="AG19" s="15">
+        <f>CHOOSE(MATCH($AE19,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$19,'Other Links'!$G$19,'Other Links'!$J$19,'Other Links'!$M$19,'Other Links'!$P$19)</f>
+        <v/>
+      </c>
+      <c r="AH19" s="14">
+        <f>CHOOSE(MATCH($AE19,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$19,'Other Links'!$H$19,'Other Links'!$K$19,'Other Links'!$N$19,'Other Links'!$Q$19)</f>
+        <v/>
+      </c>
     </row>
     <row r="20" ht="28" customHeight="1">
-      <c r="A20" s="15" t="inlineStr">
+      <c r="A20" s="16" t="inlineStr">
         <is>
           <t>Shrubs</t>
         </is>
       </c>
-      <c r="B20" s="15" t="inlineStr">
+      <c r="B20" s="16" t="inlineStr">
         <is>
           <t>SH3</t>
         </is>
       </c>
-      <c r="C20" s="16" t="inlineStr">
+      <c r="C20" s="17" t="inlineStr">
         <is>
           <t>Rgenus rspecies 'Variety3'</t>
         </is>
       </c>
-      <c r="D20" s="15" t="inlineStr">
+      <c r="D20" s="16" t="inlineStr">
         <is>
           <t>COMMON NAME3</t>
         </is>
       </c>
-      <c r="E20" s="15" t="inlineStr">
+      <c r="E20" s="16" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="F20" s="15" t="inlineStr">
+      <c r="F20" s="16" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="G20" s="15" t="inlineStr">
+      <c r="G20" s="16" t="inlineStr">
         <is>
           <t>White, Blue, Purple</t>
         </is>
       </c>
-      <c r="H20" s="15" t="inlineStr">
+      <c r="H20" s="16" t="inlineStr">
         <is>
           <t>Jun, Jul, Aug, Sep, Oct</t>
         </is>
       </c>
-      <c r="I20" s="15" t="inlineStr">
+      <c r="I20" s="16" t="inlineStr">
         <is>
           <t>Full Sun</t>
         </is>
       </c>
-      <c r="J20" s="15" t="inlineStr">
+      <c r="J20" s="16" t="inlineStr">
         <is>
           <t>Dry, Medium</t>
         </is>
       </c>
-      <c r="K20" s="15" t="inlineStr">
+      <c r="K20" s="16" t="inlineStr">
         <is>
           <t>FAC</t>
         </is>
       </c>
-      <c r="L20" s="15" t="inlineStr">
+      <c r="L20" s="16" t="inlineStr">
         <is>
           <t>Zone 5 - 9</t>
         </is>
       </c>
-      <c r="M20" s="17" t="inlineStr">
+      <c r="M20" s="18" t="inlineStr">
         <is>
           <t>Bees</t>
         </is>
       </c>
-      <c r="N20" s="17" t="inlineStr">
+      <c r="N20" s="18" t="inlineStr">
         <is>
           <t>Deer, Clay Soil</t>
         </is>
       </c>
-      <c r="O20" s="17" t="inlineStr">
+      <c r="O20" s="18" t="inlineStr">
         <is>
           <t>Soil Lorem ipsum</t>
         </is>
       </c>
-      <c r="P20" s="17" t="inlineStr">
+      <c r="P20" s="18" t="inlineStr">
         <is>
           <t>Condition Comments Lorem ipsum</t>
         </is>
       </c>
-      <c r="Q20" s="15" t="inlineStr">
+      <c r="Q20" s="16" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R20" s="17" t="inlineStr">
+      <c r="R20" s="18" t="inlineStr">
         <is>
           <t>Brushy marshes; stream banks; wet ditches; low meadows; woodlands</t>
         </is>
       </c>
-      <c r="S20" s="17" t="inlineStr">
+      <c r="S20" s="18" t="inlineStr">
         <is>
           <t>Culture Lorem ipsum.</t>
         </is>
       </c>
-      <c r="T20" s="17" t="inlineStr">
+      <c r="T20" s="18" t="inlineStr">
         <is>
           <t>Uses Lorem ipsum.</t>
         </is>
       </c>
-      <c r="U20" s="17" t="inlineStr">
+      <c r="U20" s="18" t="inlineStr">
         <is>
           <t>Use Ornamental: EXAPMLE, Use Wildlife: Wild., Use Food: Foods., Use Medicinal: Meds.</t>
         </is>
       </c>
-      <c r="V20" s="15" t="inlineStr">
+      <c r="V20" s="16" t="inlineStr">
         <is>
           <t>Maintenance: lorem ipsum.</t>
         </is>
       </c>
-      <c r="W20" s="15" t="inlineStr">
+      <c r="W20" s="16" t="inlineStr">
         <is>
           <t>Problems Lorem ipsum</t>
         </is>
       </c>
-      <c r="X20" s="18" t="inlineStr">
+      <c r="X20" s="19" t="inlineStr">
         <is>
           <t>http://mbg.org/rgenus</t>
         </is>
       </c>
-      <c r="Y20" s="18" t="inlineStr">
+      <c r="Y20" s="19" t="inlineStr">
         <is>
           <t>http://wildflower.org/rgenus</t>
         </is>
       </c>
-      <c r="Z20" s="18" t="inlineStr">
+      <c r="Z20" s="19" t="inlineStr">
         <is>
           <t>https://pleasantrunnursery.com/plants/rgenusrspecies</t>
         </is>
       </c>
-      <c r="AA20" s="18" t="inlineStr">
+      <c r="AA20" s="19" t="inlineStr">
         <is>
           <t>https://newmoonnursery.com/plants/rgenusrspecies</t>
         </is>
       </c>
-      <c r="AB20" s="18" t="inlineStr">
+      <c r="AB20" s="19" t="inlineStr">
         <is>
           <t>https://pinelandsnursery.com/plants/rgenusrspecies</t>
         </is>
       </c>
-      <c r="AC20" s="21">
+      <c r="AC20" s="22">
         <f>IF(AD20&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD20, "")</f>
         <v/>
       </c>
-      <c r="AD20" s="19" t="inlineStr"/>
+      <c r="AD20" s="20" t="inlineStr"/>
       <c r="AE20" s="8" t="inlineStr">
         <is>
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF20" s="20" t="inlineStr"/>
-      <c r="AG20" s="20" t="inlineStr"/>
-      <c r="AH20" s="20" t="inlineStr"/>
+      <c r="AF20" s="21">
+        <f>CHOOSE(MATCH($AE20,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$20,'Other Links'!$F$20,'Other Links'!$I$20,'Other Links'!$L$20,'Other Links'!$O$20)</f>
+        <v/>
+      </c>
+      <c r="AG20" s="15">
+        <f>CHOOSE(MATCH($AE20,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$20,'Other Links'!$G$20,'Other Links'!$J$20,'Other Links'!$M$20,'Other Links'!$P$20)</f>
+        <v/>
+      </c>
+      <c r="AH20" s="21">
+        <f>CHOOSE(MATCH($AE20,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$20,'Other Links'!$H$20,'Other Links'!$K$20,'Other Links'!$N$20,'Other Links'!$Q$20)</f>
+        <v/>
+      </c>
     </row>
     <row r="21" ht="28" customHeight="1">
       <c r="A21" s="6" t="inlineStr">
@@ -4139,7 +4305,7 @@
           <t>https://pinelandsnursery.com/plants/sgenussspecies</t>
         </is>
       </c>
-      <c r="AC21" s="21">
+      <c r="AC21" s="22">
         <f>IF(AD21&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD21, "")</f>
         <v/>
       </c>
@@ -4149,164 +4315,182 @@
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF21" s="14" t="inlineStr"/>
-      <c r="AG21" s="14" t="inlineStr"/>
-      <c r="AH21" s="14" t="inlineStr"/>
+      <c r="AF21" s="14">
+        <f>CHOOSE(MATCH($AE21,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$21,'Other Links'!$F$21,'Other Links'!$I$21,'Other Links'!$L$21,'Other Links'!$O$21)</f>
+        <v/>
+      </c>
+      <c r="AG21" s="15">
+        <f>CHOOSE(MATCH($AE21,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$21,'Other Links'!$G$21,'Other Links'!$J$21,'Other Links'!$M$21,'Other Links'!$P$21)</f>
+        <v/>
+      </c>
+      <c r="AH21" s="14">
+        <f>CHOOSE(MATCH($AE21,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$21,'Other Links'!$H$21,'Other Links'!$K$21,'Other Links'!$N$21,'Other Links'!$Q$21)</f>
+        <v/>
+      </c>
     </row>
     <row r="22" ht="28" customHeight="1">
-      <c r="A22" s="15" t="inlineStr">
+      <c r="A22" s="16" t="inlineStr">
         <is>
           <t>Shrubs</t>
         </is>
       </c>
-      <c r="B22" s="15" t="inlineStr">
+      <c r="B22" s="16" t="inlineStr">
         <is>
           <t>SH5</t>
         </is>
       </c>
-      <c r="C22" s="16" t="inlineStr">
+      <c r="C22" s="17" t="inlineStr">
         <is>
           <t>Tgenus tspecies 'Variety5'</t>
         </is>
       </c>
-      <c r="D22" s="15" t="inlineStr">
+      <c r="D22" s="16" t="inlineStr">
         <is>
           <t>COMMON NAME5</t>
         </is>
       </c>
-      <c r="E22" s="15" t="inlineStr">
+      <c r="E22" s="16" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="F22" s="15" t="inlineStr">
+      <c r="F22" s="16" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="G22" s="15" t="inlineStr">
+      <c r="G22" s="16" t="inlineStr">
         <is>
           <t>Blue, Purple</t>
         </is>
       </c>
-      <c r="H22" s="15" t="inlineStr">
+      <c r="H22" s="16" t="inlineStr">
         <is>
           <t>Jul, Aug</t>
         </is>
       </c>
-      <c r="I22" s="15" t="inlineStr">
+      <c r="I22" s="16" t="inlineStr">
         <is>
           <t>Full Sun</t>
         </is>
       </c>
-      <c r="J22" s="15" t="inlineStr">
+      <c r="J22" s="16" t="inlineStr">
         <is>
           <t>Dry</t>
         </is>
       </c>
-      <c r="K22" s="15" t="inlineStr">
+      <c r="K22" s="16" t="inlineStr">
         <is>
           <t>FACW</t>
         </is>
       </c>
-      <c r="L22" s="15" t="inlineStr">
+      <c r="L22" s="16" t="inlineStr">
         <is>
           <t>Zone 5 - 9</t>
         </is>
       </c>
-      <c r="M22" s="17" t="inlineStr">
+      <c r="M22" s="18" t="inlineStr">
         <is>
           <t>Bees</t>
         </is>
       </c>
-      <c r="N22" s="17" t="inlineStr">
+      <c r="N22" s="18" t="inlineStr">
         <is>
           <t>Deer, Drought, Dry Soil, Shallow-Rocky Soil</t>
         </is>
       </c>
-      <c r="O22" s="17" t="inlineStr">
+      <c r="O22" s="18" t="inlineStr">
         <is>
           <t>Soil Lorem ipsum</t>
         </is>
       </c>
-      <c r="P22" s="17" t="inlineStr">
+      <c r="P22" s="18" t="inlineStr">
         <is>
           <t>Condition Comments Lorem ipsum</t>
         </is>
       </c>
-      <c r="Q22" s="15" t="inlineStr">
+      <c r="Q22" s="16" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R22" s="17" t="inlineStr">
+      <c r="R22" s="18" t="inlineStr">
         <is>
           <t>Native Habitats Lorem ipsum</t>
         </is>
       </c>
-      <c r="S22" s="17" t="inlineStr">
+      <c r="S22" s="18" t="inlineStr">
         <is>
           <t>Culture Lorem ipsum.</t>
         </is>
       </c>
-      <c r="T22" s="17" t="inlineStr">
+      <c r="T22" s="18" t="inlineStr">
         <is>
           <t>Uses Lorem ipsum.</t>
         </is>
       </c>
-      <c r="U22" s="17" t="inlineStr">
+      <c r="U22" s="18" t="inlineStr">
         <is>
           <t>Use Ornamental: EXAPMLE, Use Wildlife: Wild., Use Food: Foods., Use Medicinal: Meds.</t>
         </is>
       </c>
-      <c r="V22" s="15" t="inlineStr">
+      <c r="V22" s="16" t="inlineStr">
         <is>
           <t>Maintenance: lorem ipsum.</t>
         </is>
       </c>
-      <c r="W22" s="15" t="inlineStr">
+      <c r="W22" s="16" t="inlineStr">
         <is>
           <t>Problems Lorem ipsum</t>
         </is>
       </c>
-      <c r="X22" s="18" t="inlineStr">
+      <c r="X22" s="19" t="inlineStr">
         <is>
           <t>http://mbg.org/tgenus</t>
         </is>
       </c>
-      <c r="Y22" s="18" t="inlineStr">
+      <c r="Y22" s="19" t="inlineStr">
         <is>
           <t>http://wildflower.org/tgenus</t>
         </is>
       </c>
-      <c r="Z22" s="18" t="inlineStr">
+      <c r="Z22" s="19" t="inlineStr">
         <is>
           <t>https://pleasantrunnursery.com/plants/tgenustspecies</t>
         </is>
       </c>
-      <c r="AA22" s="18" t="inlineStr">
+      <c r="AA22" s="19" t="inlineStr">
         <is>
           <t>https://newmoonnursery.com/plants/tgenustspecies</t>
         </is>
       </c>
-      <c r="AB22" s="18" t="inlineStr">
+      <c r="AB22" s="19" t="inlineStr">
         <is>
           <t>https://pinelandsnursery.com/plants/tgenustspecies</t>
         </is>
       </c>
-      <c r="AC22" s="21">
+      <c r="AC22" s="22">
         <f>IF(AD22&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD22, "")</f>
         <v/>
       </c>
-      <c r="AD22" s="19" t="inlineStr"/>
+      <c r="AD22" s="20" t="inlineStr"/>
       <c r="AE22" s="8" t="inlineStr">
         <is>
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF22" s="20" t="inlineStr"/>
-      <c r="AG22" s="20" t="inlineStr"/>
-      <c r="AH22" s="20" t="inlineStr"/>
+      <c r="AF22" s="21">
+        <f>CHOOSE(MATCH($AE22,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$22,'Other Links'!$F$22,'Other Links'!$I$22,'Other Links'!$L$22,'Other Links'!$O$22)</f>
+        <v/>
+      </c>
+      <c r="AG22" s="15">
+        <f>CHOOSE(MATCH($AE22,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$22,'Other Links'!$G$22,'Other Links'!$J$22,'Other Links'!$M$22,'Other Links'!$P$22)</f>
+        <v/>
+      </c>
+      <c r="AH22" s="21">
+        <f>CHOOSE(MATCH($AE22,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$22,'Other Links'!$H$22,'Other Links'!$K$22,'Other Links'!$N$22,'Other Links'!$Q$22)</f>
+        <v/>
+      </c>
     </row>
     <row r="23" ht="28" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -4449,7 +4633,7 @@
           <t>https://pinelandsnursery.com/plants/ugenususpecies</t>
         </is>
       </c>
-      <c r="AC23" s="21">
+      <c r="AC23" s="22">
         <f>IF(AD23&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD23, "")</f>
         <v/>
       </c>
@@ -4459,164 +4643,182 @@
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF23" s="14" t="inlineStr"/>
-      <c r="AG23" s="14" t="inlineStr"/>
-      <c r="AH23" s="14" t="inlineStr"/>
+      <c r="AF23" s="14">
+        <f>CHOOSE(MATCH($AE23,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$23,'Other Links'!$F$23,'Other Links'!$I$23,'Other Links'!$L$23,'Other Links'!$O$23)</f>
+        <v/>
+      </c>
+      <c r="AG23" s="15">
+        <f>CHOOSE(MATCH($AE23,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$23,'Other Links'!$G$23,'Other Links'!$J$23,'Other Links'!$M$23,'Other Links'!$P$23)</f>
+        <v/>
+      </c>
+      <c r="AH23" s="14">
+        <f>CHOOSE(MATCH($AE23,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$23,'Other Links'!$H$23,'Other Links'!$K$23,'Other Links'!$N$23,'Other Links'!$Q$23)</f>
+        <v/>
+      </c>
     </row>
     <row r="24" ht="28" customHeight="1">
-      <c r="A24" s="15" t="inlineStr">
+      <c r="A24" s="16" t="inlineStr">
         <is>
           <t>Trees</t>
         </is>
       </c>
-      <c r="B24" s="15" t="inlineStr">
+      <c r="B24" s="16" t="inlineStr">
         <is>
           <t>TR2</t>
         </is>
       </c>
-      <c r="C24" s="16" t="inlineStr">
+      <c r="C24" s="17" t="inlineStr">
         <is>
           <t>Vgenus vspecies 'Variety2'</t>
         </is>
       </c>
-      <c r="D24" s="15" t="inlineStr">
+      <c r="D24" s="16" t="inlineStr">
         <is>
           <t>COMMON NAME2</t>
         </is>
       </c>
-      <c r="E24" s="15" t="inlineStr">
+      <c r="E24" s="16" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="F24" s="15" t="inlineStr">
+      <c r="F24" s="16" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="G24" s="15" t="inlineStr">
+      <c r="G24" s="16" t="inlineStr">
         <is>
           <t>Purple, Magenta</t>
         </is>
       </c>
-      <c r="H24" s="15" t="inlineStr">
+      <c r="H24" s="16" t="inlineStr">
         <is>
           <t>Sep, Oct, Nov, Dec</t>
         </is>
       </c>
-      <c r="I24" s="15" t="inlineStr">
+      <c r="I24" s="16" t="inlineStr">
         <is>
           <t>Part Shade, Full Shade</t>
         </is>
       </c>
-      <c r="J24" s="15" t="inlineStr">
+      <c r="J24" s="16" t="inlineStr">
         <is>
           <t>Medium, Wet</t>
         </is>
       </c>
-      <c r="K24" s="15" t="inlineStr">
+      <c r="K24" s="16" t="inlineStr">
         <is>
           <t>OBL</t>
         </is>
       </c>
-      <c r="L24" s="15" t="inlineStr">
+      <c r="L24" s="16" t="inlineStr">
         <is>
           <t>Zone 5 - 9</t>
         </is>
       </c>
-      <c r="M24" s="17" t="inlineStr">
+      <c r="M24" s="18" t="inlineStr">
         <is>
           <t>Birds, Butterflies</t>
         </is>
       </c>
-      <c r="N24" s="17" t="inlineStr">
+      <c r="N24" s="18" t="inlineStr">
         <is>
           <t>Deer, Clay Soil</t>
         </is>
       </c>
-      <c r="O24" s="17" t="inlineStr">
+      <c r="O24" s="18" t="inlineStr">
         <is>
           <t>Soil Lorem ipsum</t>
         </is>
       </c>
-      <c r="P24" s="17" t="inlineStr">
+      <c r="P24" s="18" t="inlineStr">
         <is>
           <t>Condition Comments Lorem ipsum</t>
         </is>
       </c>
-      <c r="Q24" s="15" t="inlineStr">
+      <c r="Q24" s="16" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R24" s="17" t="inlineStr">
+      <c r="R24" s="18" t="inlineStr">
         <is>
           <t>Native Habitats Lorem ipsum</t>
         </is>
       </c>
-      <c r="S24" s="17" t="inlineStr">
+      <c r="S24" s="18" t="inlineStr">
         <is>
           <t>Culture Lorem ipsum.</t>
         </is>
       </c>
-      <c r="T24" s="17" t="inlineStr">
+      <c r="T24" s="18" t="inlineStr">
         <is>
           <t>Uses Lorem ipsum.</t>
         </is>
       </c>
-      <c r="U24" s="17" t="inlineStr">
+      <c r="U24" s="18" t="inlineStr">
         <is>
           <t>Use Ornamental: EXAPMLE, Use Wildlife: Wild., Use Food: Foods., Use Medicinal: Meds.</t>
         </is>
       </c>
-      <c r="V24" s="15" t="inlineStr">
+      <c r="V24" s="16" t="inlineStr">
         <is>
           <t>Maintenance: lorem ipsum.</t>
         </is>
       </c>
-      <c r="W24" s="15" t="inlineStr">
+      <c r="W24" s="16" t="inlineStr">
         <is>
           <t>Problems Lorem ipsum</t>
         </is>
       </c>
-      <c r="X24" s="18" t="inlineStr">
+      <c r="X24" s="19" t="inlineStr">
         <is>
           <t>http://mbg.org/vgenus</t>
         </is>
       </c>
-      <c r="Y24" s="18" t="inlineStr">
+      <c r="Y24" s="19" t="inlineStr">
         <is>
           <t>http://wildflower.org/vgenus</t>
         </is>
       </c>
-      <c r="Z24" s="18" t="inlineStr">
+      <c r="Z24" s="19" t="inlineStr">
         <is>
           <t>https://pleasantrunnursery.com/plants/vgenusvspecies</t>
         </is>
       </c>
-      <c r="AA24" s="18" t="inlineStr">
+      <c r="AA24" s="19" t="inlineStr">
         <is>
           <t>https://newmoonnursery.com/plants/vgenusvspecies</t>
         </is>
       </c>
-      <c r="AB24" s="18" t="inlineStr">
+      <c r="AB24" s="19" t="inlineStr">
         <is>
           <t>https://pinelandsnursery.com/plants/vgenusvspecies</t>
         </is>
       </c>
-      <c r="AC24" s="21">
+      <c r="AC24" s="22">
         <f>IF(AD24&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD24, "")</f>
         <v/>
       </c>
-      <c r="AD24" s="19" t="inlineStr"/>
+      <c r="AD24" s="20" t="inlineStr"/>
       <c r="AE24" s="8" t="inlineStr">
         <is>
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF24" s="20" t="inlineStr"/>
-      <c r="AG24" s="20" t="inlineStr"/>
-      <c r="AH24" s="20" t="inlineStr"/>
+      <c r="AF24" s="21">
+        <f>CHOOSE(MATCH($AE24,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$24,'Other Links'!$F$24,'Other Links'!$I$24,'Other Links'!$L$24,'Other Links'!$O$24)</f>
+        <v/>
+      </c>
+      <c r="AG24" s="15">
+        <f>CHOOSE(MATCH($AE24,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$24,'Other Links'!$G$24,'Other Links'!$J$24,'Other Links'!$M$24,'Other Links'!$P$24)</f>
+        <v/>
+      </c>
+      <c r="AH24" s="21">
+        <f>CHOOSE(MATCH($AE24,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$24,'Other Links'!$H$24,'Other Links'!$K$24,'Other Links'!$N$24,'Other Links'!$Q$24)</f>
+        <v/>
+      </c>
     </row>
     <row r="25" ht="28" customHeight="1">
       <c r="A25" s="6" t="inlineStr">
@@ -4759,7 +4961,7 @@
           <t>https://pinelandsnursery.com/plants/wgenuswspecies</t>
         </is>
       </c>
-      <c r="AC25" s="21">
+      <c r="AC25" s="22">
         <f>IF(AD25&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD25, "")</f>
         <v/>
       </c>
@@ -4769,164 +4971,182 @@
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF25" s="14" t="inlineStr"/>
-      <c r="AG25" s="14" t="inlineStr"/>
-      <c r="AH25" s="14" t="inlineStr"/>
+      <c r="AF25" s="14">
+        <f>CHOOSE(MATCH($AE25,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$25,'Other Links'!$F$25,'Other Links'!$I$25,'Other Links'!$L$25,'Other Links'!$O$25)</f>
+        <v/>
+      </c>
+      <c r="AG25" s="15">
+        <f>CHOOSE(MATCH($AE25,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$25,'Other Links'!$G$25,'Other Links'!$J$25,'Other Links'!$M$25,'Other Links'!$P$25)</f>
+        <v/>
+      </c>
+      <c r="AH25" s="14">
+        <f>CHOOSE(MATCH($AE25,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$25,'Other Links'!$H$25,'Other Links'!$K$25,'Other Links'!$N$25,'Other Links'!$Q$25)</f>
+        <v/>
+      </c>
     </row>
     <row r="26" ht="28" customHeight="1">
-      <c r="A26" s="15" t="inlineStr">
+      <c r="A26" s="16" t="inlineStr">
         <is>
           <t>Trees</t>
         </is>
       </c>
-      <c r="B26" s="15" t="inlineStr">
+      <c r="B26" s="16" t="inlineStr">
         <is>
           <t>TR4</t>
         </is>
       </c>
-      <c r="C26" s="16" t="inlineStr">
+      <c r="C26" s="17" t="inlineStr">
         <is>
           <t>Xgenus xspecies 'Variety4'</t>
         </is>
       </c>
-      <c r="D26" s="15" t="inlineStr">
+      <c r="D26" s="16" t="inlineStr">
         <is>
           <t>COMMON NAME4</t>
         </is>
       </c>
-      <c r="E26" s="15" t="inlineStr">
+      <c r="E26" s="16" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="F26" s="15" t="inlineStr">
+      <c r="F26" s="16" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="G26" s="15" t="inlineStr">
+      <c r="G26" s="16" t="inlineStr">
         <is>
           <t>White, Pink</t>
         </is>
       </c>
-      <c r="H26" s="15" t="inlineStr">
+      <c r="H26" s="16" t="inlineStr">
         <is>
           <t>Apr, May, Jun, Jul, Aug</t>
         </is>
       </c>
-      <c r="I26" s="15" t="inlineStr">
+      <c r="I26" s="16" t="inlineStr">
         <is>
           <t>Part Shade</t>
         </is>
       </c>
-      <c r="J26" s="15" t="inlineStr">
+      <c r="J26" s="16" t="inlineStr">
         <is>
           <t>Wet</t>
         </is>
       </c>
-      <c r="K26" s="15" t="inlineStr">
+      <c r="K26" s="16" t="inlineStr">
         <is>
           <t>FAC</t>
         </is>
       </c>
-      <c r="L26" s="15" t="inlineStr">
+      <c r="L26" s="16" t="inlineStr">
         <is>
           <t>Zone 5 - 9</t>
         </is>
       </c>
-      <c r="M26" s="17" t="inlineStr">
+      <c r="M26" s="18" t="inlineStr">
         <is>
           <t>Hummingbirds, Butterflies</t>
         </is>
       </c>
-      <c r="N26" s="17" t="inlineStr">
+      <c r="N26" s="18" t="inlineStr">
         <is>
           <t>Deer, Clay Soil</t>
         </is>
       </c>
-      <c r="O26" s="17" t="inlineStr">
+      <c r="O26" s="18" t="inlineStr">
         <is>
           <t>Soil Lorem ipsum</t>
         </is>
       </c>
-      <c r="P26" s="17" t="inlineStr">
+      <c r="P26" s="18" t="inlineStr">
         <is>
           <t>Condition Comments Lorem ipsum</t>
         </is>
       </c>
-      <c r="Q26" s="15" t="inlineStr">
+      <c r="Q26" s="16" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="R26" s="17" t="inlineStr">
+      <c r="R26" s="18" t="inlineStr">
         <is>
           <t>Native Habitats Lorem ipsum</t>
         </is>
       </c>
-      <c r="S26" s="17" t="inlineStr">
+      <c r="S26" s="18" t="inlineStr">
         <is>
           <t>Culture Lorem ipsum.</t>
         </is>
       </c>
-      <c r="T26" s="17" t="inlineStr">
+      <c r="T26" s="18" t="inlineStr">
         <is>
           <t>Uses Lorem ipsum.</t>
         </is>
       </c>
-      <c r="U26" s="17" t="inlineStr">
+      <c r="U26" s="18" t="inlineStr">
         <is>
           <t>Use Ornamental: EXAPMLE, Use Wildlife: Wild., Use Food: Foods., Use Medicinal: Meds.</t>
         </is>
       </c>
-      <c r="V26" s="15" t="inlineStr">
+      <c r="V26" s="16" t="inlineStr">
         <is>
           <t>Maintenance: lorem ipsum.</t>
         </is>
       </c>
-      <c r="W26" s="15" t="inlineStr">
+      <c r="W26" s="16" t="inlineStr">
         <is>
           <t>Problems Lorem ipsum</t>
         </is>
       </c>
-      <c r="X26" s="18" t="inlineStr">
+      <c r="X26" s="19" t="inlineStr">
         <is>
           <t>http://mbg.org/xgenus</t>
         </is>
       </c>
-      <c r="Y26" s="18" t="inlineStr">
+      <c r="Y26" s="19" t="inlineStr">
         <is>
           <t>http://wildflower.org/xgenus</t>
         </is>
       </c>
-      <c r="Z26" s="18" t="inlineStr">
+      <c r="Z26" s="19" t="inlineStr">
         <is>
           <t>https://pleasantrunnursery.com/plants/xgenusxspecies</t>
         </is>
       </c>
-      <c r="AA26" s="18" t="inlineStr">
+      <c r="AA26" s="19" t="inlineStr">
         <is>
           <t>https://newmoonnursery.com/plants/xgenusxspecies</t>
         </is>
       </c>
-      <c r="AB26" s="18" t="inlineStr">
+      <c r="AB26" s="19" t="inlineStr">
         <is>
           <t>https://pinelandsnursery.com/plants/xgenusxspecies</t>
         </is>
       </c>
-      <c r="AC26" s="21">
+      <c r="AC26" s="22">
         <f>IF(AD26&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD26, "")</f>
         <v/>
       </c>
-      <c r="AD26" s="19" t="inlineStr"/>
+      <c r="AD26" s="20" t="inlineStr"/>
       <c r="AE26" s="8" t="inlineStr">
         <is>
           <t>Link 1</t>
         </is>
       </c>
-      <c r="AF26" s="20" t="inlineStr"/>
-      <c r="AG26" s="20" t="inlineStr"/>
-      <c r="AH26" s="20" t="inlineStr"/>
+      <c r="AF26" s="21">
+        <f>CHOOSE(MATCH($AE26,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$26,'Other Links'!$F$26,'Other Links'!$I$26,'Other Links'!$L$26,'Other Links'!$O$26)</f>
+        <v/>
+      </c>
+      <c r="AG26" s="15">
+        <f>CHOOSE(MATCH($AE26,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$26,'Other Links'!$G$26,'Other Links'!$J$26,'Other Links'!$M$26,'Other Links'!$P$26)</f>
+        <v/>
+      </c>
+      <c r="AH26" s="21">
+        <f>CHOOSE(MATCH($AE26,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$E$26,'Other Links'!$H$26,'Other Links'!$K$26,'Other Links'!$N$26,'Other Links'!$Q$26)</f>
+        <v/>
+      </c>
     </row>
     <row r="27" ht="28" customHeight="1">
       <c r="A27" s="6" t="inlineStr">
@@ -5069,9 +5289,10 @@
           <t>https://pinelandsnursery.com/plants/ygenusyspecies</t>
         </is>
       </c>
-      <c r="AC27" s="21">
-        <f>IF(AD27&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD27, "")</f>
-        <v/>
+      <c r="AC27" s="12" t="inlineStr">
+        <is>
+          <t>2025555</t>
+        </is>
       </c>
       <c r="AD27" s="13" t="inlineStr"/>
       <c r="AE27" s="8" t="inlineStr">
@@ -5083,7 +5304,7 @@
         <f>CHOOSE(MATCH($AE27,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$C$27,'Other Links'!$F$27,'Other Links'!$I$27,'Other Links'!$L$27,'Other Links'!$O$27)</f>
         <v/>
       </c>
-      <c r="AG27" s="22">
+      <c r="AG27" s="15">
         <f>CHOOSE(MATCH($AE27,{"Link 1","Link 2","Link 3","Link 4","Link 5"},0),'Other Links'!$D$27,'Other Links'!$G$27,'Other Links'!$J$27,'Other Links'!$M$27,'Other Links'!$P$27)</f>
         <v/>
       </c>
@@ -5305,7 +5526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RH27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5435,10 +5656,9 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R3">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C3="",D3="",E3=""), "",CONCAT("[",C3,",",CHAR(34),D3,CHAR(34),",",CHAR(34),E3,CHAR(34),"]")),IF(OR(F3="",G3="",H3=""), "",CONCAT("[",F3,",",CHAR(34),G3,CHAR(34),",",CHAR(34),H3,CHAR(34),"]")),IF(OR(I3="",J3="",K3=""), "",CONCAT("[",I3,",",CHAR(34),J3,CHAR(34),",",CHAR(34),K3,CHAR(34),"]")),IF(OR(L3="",M3="",N3=""), "",CONCAT("[",L3,",",CHAR(34),M3,CHAR(34),",",CHAR(34),N3,CHAR(34),"]")),IF(OR(O3="",P3="",Q3=""), "",CONCAT("[",O3,",",CHAR(34),P3,CHAR(34),",",CHAR(34),Q3,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -5448,85 +5668,6 @@
       <c r="T3">
         <f>IF(R3=S3,"Matched!",CONCAT("Diff → ", R3, " ≠ ", S3))</f>
         <v/>
-      </c>
-      <c r="W3">
-        <f>TEXTJOIN(";",TRUE,R3,AS3,AY3,BE3,EM3,ES3,EY3,IG3,IM3,IS3,MA3,MG3,MM3,PU3,QA3,QG3)</f>
-        <v/>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EM3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ES3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EY3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IG3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IM3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IS3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MA3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MG3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MM3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="PU3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QA3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QG3" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -5579,10 +5720,9 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R4">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C4="",D4="",E4=""), "",CONCAT("[",C4,",",CHAR(34),D4,CHAR(34),",",CHAR(34),E4,CHAR(34),"]")),IF(OR(F4="",G4="",H4=""), "",CONCAT("[",F4,",",CHAR(34),G4,CHAR(34),",",CHAR(34),H4,CHAR(34),"]")),IF(OR(I4="",J4="",K4=""), "",CONCAT("[",I4,",",CHAR(34),J4,CHAR(34),",",CHAR(34),K4,CHAR(34),"]")),IF(OR(L4="",M4="",N4=""), "",CONCAT("[",L4,",",CHAR(34),M4,CHAR(34),",",CHAR(34),N4,CHAR(34),"]")),IF(OR(O4="",P4="",Q4=""), "",CONCAT("[",O4,",",CHAR(34),P4,CHAR(34),",",CHAR(34),Q4,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -5592,85 +5732,6 @@
       <c r="T4">
         <f>IF(R4=S4,"Matched!",CONCAT("Diff → ", R4, " ≠ ", S4))</f>
         <v/>
-      </c>
-      <c r="W4">
-        <f>TEXTJOIN(";",TRUE,R4,AS4,AY4,BE4,EM4,ES4,EY4,IG4,IM4,IS4,MA4,MG4,MM4,PU4,QA4,QG4)</f>
-        <v/>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EM4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ES4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EY4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IG4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IM4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IS4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MA4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MG4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MM4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="PU4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QA4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QG4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -5735,10 +5796,9 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R5">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C5="",D5="",E5=""), "",CONCAT("[",C5,",",CHAR(34),D5,CHAR(34),",",CHAR(34),E5,CHAR(34),"]")),IF(OR(F5="",G5="",H5=""), "",CONCAT("[",F5,",",CHAR(34),G5,CHAR(34),",",CHAR(34),H5,CHAR(34),"]")),IF(OR(I5="",J5="",K5=""), "",CONCAT("[",I5,",",CHAR(34),J5,CHAR(34),",",CHAR(34),K5,CHAR(34),"]")),IF(OR(L5="",M5="",N5=""), "",CONCAT("[",L5,",",CHAR(34),M5,CHAR(34),",",CHAR(34),N5,CHAR(34),"]")),IF(OR(O5="",P5="",Q5=""), "",CONCAT("[",O5,",",CHAR(34),P5,CHAR(34),",",CHAR(34),Q5,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -5748,85 +5808,6 @@
       <c r="T5">
         <f>IF(R5=S5,"Matched!",CONCAT("Diff → ", R5, " ≠ ", S5))</f>
         <v/>
-      </c>
-      <c r="W5">
-        <f>TEXTJOIN(";",TRUE,R5,AS5,AY5,BE5,EM5,ES5,EY5,IG5,IM5,IS5,MA5,MG5,MM5,PU5,QA5,QG5)</f>
-        <v/>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EM5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ES5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EY5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IG5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IM5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IS5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MA5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MG5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MM5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="PU5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QA5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QG5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="6">
@@ -5903,10 +5884,9 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R6">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C6="",D6="",E6=""), "",CONCAT("[",C6,",",CHAR(34),D6,CHAR(34),",",CHAR(34),E6,CHAR(34),"]")),IF(OR(F6="",G6="",H6=""), "",CONCAT("[",F6,",",CHAR(34),G6,CHAR(34),",",CHAR(34),H6,CHAR(34),"]")),IF(OR(I6="",J6="",K6=""), "",CONCAT("[",I6,",",CHAR(34),J6,CHAR(34),",",CHAR(34),K6,CHAR(34),"]")),IF(OR(L6="",M6="",N6=""), "",CONCAT("[",L6,",",CHAR(34),M6,CHAR(34),",",CHAR(34),N6,CHAR(34),"]")),IF(OR(O6="",P6="",Q6=""), "",CONCAT("[",O6,",",CHAR(34),P6,CHAR(34),",",CHAR(34),Q6,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -5917,85 +5897,6 @@
         <f>IF(R6=S6,"Matched!",CONCAT("Diff → ", R6, " ≠ ", S6))</f>
         <v/>
       </c>
-      <c r="W6">
-        <f>TEXTJOIN(";",TRUE,R6,AS6,AY6,BE6,EM6,ES6,EY6,IG6,IM6,IS6,MA6,MG6,MM6,PU6,QA6,QG6)</f>
-        <v/>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EM6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ES6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EY6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IG6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IM6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IS6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MA6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MG6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MM6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="PU6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QA6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QG6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6083,10 +5984,9 @@
           <t>Test Link 5</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R7">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C7="",D7="",E7=""), "",CONCAT("[",C7,",",CHAR(34),D7,CHAR(34),",",CHAR(34),E7,CHAR(34),"]")),IF(OR(F7="",G7="",H7=""), "",CONCAT("[",F7,",",CHAR(34),G7,CHAR(34),",",CHAR(34),H7,CHAR(34),"]")),IF(OR(I7="",J7="",K7=""), "",CONCAT("[",I7,",",CHAR(34),J7,CHAR(34),",",CHAR(34),K7,CHAR(34),"]")),IF(OR(L7="",M7="",N7=""), "",CONCAT("[",L7,",",CHAR(34),M7,CHAR(34),",",CHAR(34),N7,CHAR(34),"]")),IF(OR(O7="",P7="",Q7=""), "",CONCAT("[",O7,",",CHAR(34),P7,CHAR(34),",",CHAR(34),Q7,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -6096,85 +5996,6 @@
       <c r="T7">
         <f>IF(R7=S7,"Matched!",CONCAT("Diff → ", R7, " ≠ ", S7))</f>
         <v/>
-      </c>
-      <c r="W7">
-        <f>TEXTJOIN(";",TRUE,R7,AS7,AY7,BE7,EM7,ES7,EY7,IG7,IM7,IS7,MA7,MG7,MM7,PU7,QA7,QG7)</f>
-        <v/>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EM7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ES7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EY7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IG7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IM7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IS7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MA7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MG7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MM7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="PU7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QA7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QG7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="8">
@@ -6215,10 +6036,9 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R8">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C8="",D8="",E8=""), "",CONCAT("[",C8,",",CHAR(34),D8,CHAR(34),",",CHAR(34),E8,CHAR(34),"]")),IF(OR(F8="",G8="",H8=""), "",CONCAT("[",F8,",",CHAR(34),G8,CHAR(34),",",CHAR(34),H8,CHAR(34),"]")),IF(OR(I8="",J8="",K8=""), "",CONCAT("[",I8,",",CHAR(34),J8,CHAR(34),",",CHAR(34),K8,CHAR(34),"]")),IF(OR(L8="",M8="",N8=""), "",CONCAT("[",L8,",",CHAR(34),M8,CHAR(34),",",CHAR(34),N8,CHAR(34),"]")),IF(OR(O8="",P8="",Q8=""), "",CONCAT("[",O8,",",CHAR(34),P8,CHAR(34),",",CHAR(34),Q8,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -6228,85 +6048,6 @@
       <c r="T8">
         <f>IF(R8=S8,"Matched!",CONCAT("Diff → ", R8, " ≠ ", S8))</f>
         <v/>
-      </c>
-      <c r="W8">
-        <f>TEXTJOIN(";",TRUE,R8,AS8,AY8,BE8,EM8,ES8,EY8,IG8,IM8,IS8,MA8,MG8,MM8,PU8,QA8,QG8)</f>
-        <v/>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EM8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ES8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EY8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IG8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IM8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IS8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MA8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MG8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MM8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="PU8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QA8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QG8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="9">
@@ -6359,10 +6100,9 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R9">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C9="",D9="",E9=""), "",CONCAT("[",C9,",",CHAR(34),D9,CHAR(34),",",CHAR(34),E9,CHAR(34),"]")),IF(OR(F9="",G9="",H9=""), "",CONCAT("[",F9,",",CHAR(34),G9,CHAR(34),",",CHAR(34),H9,CHAR(34),"]")),IF(OR(I9="",J9="",K9=""), "",CONCAT("[",I9,",",CHAR(34),J9,CHAR(34),",",CHAR(34),K9,CHAR(34),"]")),IF(OR(L9="",M9="",N9=""), "",CONCAT("[",L9,",",CHAR(34),M9,CHAR(34),",",CHAR(34),N9,CHAR(34),"]")),IF(OR(O9="",P9="",Q9=""), "",CONCAT("[",O9,",",CHAR(34),P9,CHAR(34),",",CHAR(34),Q9,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -6372,85 +6112,6 @@
       <c r="T9">
         <f>IF(R9=S9,"Matched!",CONCAT("Diff → ", R9, " ≠ ", S9))</f>
         <v/>
-      </c>
-      <c r="W9">
-        <f>TEXTJOIN(";",TRUE,R9,AS9,AY9,BE9,EM9,ES9,EY9,IG9,IM9,IS9,MA9,MG9,MM9,PU9,QA9,QG9)</f>
-        <v/>
-      </c>
-      <c r="AS9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BE9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EM9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ES9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="EY9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IG9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IM9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IS9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MA9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MG9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MM9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="PU9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QA9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QG9" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -6515,10 +6176,9 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R10">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C10="",D10="",E10=""), "",CONCAT("[",C10,",",CHAR(34),D10,CHAR(34),",",CHAR(34),E10,CHAR(34),"]")),IF(OR(F10="",G10="",H10=""), "",CONCAT("[",F10,",",CHAR(34),G10,CHAR(34),",",CHAR(34),H10,CHAR(34),"]")),IF(OR(I10="",J10="",K10=""), "",CONCAT("[",I10,",",CHAR(34),J10,CHAR(34),",",CHAR(34),K10,CHAR(34),"]")),IF(OR(L10="",M10="",N10=""), "",CONCAT("[",L10,",",CHAR(34),M10,CHAR(34),",",CHAR(34),N10,CHAR(34),"]")),IF(OR(O10="",P10="",Q10=""), "",CONCAT("[",O10,",",CHAR(34),P10,CHAR(34),",",CHAR(34),Q10,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -6528,85 +6188,6 @@
       <c r="T10">
         <f>IF(R10=S10,"Matched!",CONCAT("Diff → ", R10, " ≠ ", S10))</f>
         <v/>
-      </c>
-      <c r="W10">
-        <f>TEXTJOIN(";",TRUE,R10,AT10,BA10,BH10,ET10,FA10,FH10,IT10,JA10,JH10,MT10,NA10,NH10,QT10,RA10,RH10)</f>
-        <v/>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH10" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -6683,10 +6264,9 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R11">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C11="",D11="",E11=""), "",CONCAT("[",C11,",",CHAR(34),D11,CHAR(34),",",CHAR(34),E11,CHAR(34),"]")),IF(OR(F11="",G11="",H11=""), "",CONCAT("[",F11,",",CHAR(34),G11,CHAR(34),",",CHAR(34),H11,CHAR(34),"]")),IF(OR(I11="",J11="",K11=""), "",CONCAT("[",I11,",",CHAR(34),J11,CHAR(34),",",CHAR(34),K11,CHAR(34),"]")),IF(OR(L11="",M11="",N11=""), "",CONCAT("[",L11,",",CHAR(34),M11,CHAR(34),",",CHAR(34),N11,CHAR(34),"]")),IF(OR(O11="",P11="",Q11=""), "",CONCAT("[",O11,",",CHAR(34),P11,CHAR(34),",",CHAR(34),Q11,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -6697,85 +6277,6 @@
         <f>IF(R11=S11,"Matched!",CONCAT("Diff → ", R11, " ≠ ", S11))</f>
         <v/>
       </c>
-      <c r="W11">
-        <f>TEXTJOIN(";",TRUE,R11,AT11,BA11,BH11,ET11,FA11,FH11,IT11,JA11,JH11,MT11,NA11,NH11,QT11,RA11,RH11)</f>
-        <v/>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH11" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6863,10 +6364,9 @@
           <t>Test Link 5</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R12">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C12="",D12="",E12=""), "",CONCAT("[",C12,",",CHAR(34),D12,CHAR(34),",",CHAR(34),E12,CHAR(34),"]")),IF(OR(F12="",G12="",H12=""), "",CONCAT("[",F12,",",CHAR(34),G12,CHAR(34),",",CHAR(34),H12,CHAR(34),"]")),IF(OR(I12="",J12="",K12=""), "",CONCAT("[",I12,",",CHAR(34),J12,CHAR(34),",",CHAR(34),K12,CHAR(34),"]")),IF(OR(L12="",M12="",N12=""), "",CONCAT("[",L12,",",CHAR(34),M12,CHAR(34),",",CHAR(34),N12,CHAR(34),"]")),IF(OR(O12="",P12="",Q12=""), "",CONCAT("[",O12,",",CHAR(34),P12,CHAR(34),",",CHAR(34),Q12,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -6876,85 +6376,6 @@
       <c r="T12">
         <f>IF(R12=S12,"Matched!",CONCAT("Diff → ", R12, " ≠ ", S12))</f>
         <v/>
-      </c>
-      <c r="W12">
-        <f>TEXTJOIN(";",TRUE,R12,AT12,BA12,BH12,ET12,FA12,FH12,IT12,JA12,JH12,MT12,NA12,NH12,QT12,RA12,RH12)</f>
-        <v/>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="13">
@@ -6995,10 +6416,9 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R13">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C13="",D13="",E13=""), "",CONCAT("[",C13,",",CHAR(34),D13,CHAR(34),",",CHAR(34),E13,CHAR(34),"]")),IF(OR(F13="",G13="",H13=""), "",CONCAT("[",F13,",",CHAR(34),G13,CHAR(34),",",CHAR(34),H13,CHAR(34),"]")),IF(OR(I13="",J13="",K13=""), "",CONCAT("[",I13,",",CHAR(34),J13,CHAR(34),",",CHAR(34),K13,CHAR(34),"]")),IF(OR(L13="",M13="",N13=""), "",CONCAT("[",L13,",",CHAR(34),M13,CHAR(34),",",CHAR(34),N13,CHAR(34),"]")),IF(OR(O13="",P13="",Q13=""), "",CONCAT("[",O13,",",CHAR(34),P13,CHAR(34),",",CHAR(34),Q13,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -7008,85 +6428,6 @@
       <c r="T13">
         <f>IF(R13=S13,"Matched!",CONCAT("Diff → ", R13, " ≠ ", S13))</f>
         <v/>
-      </c>
-      <c r="W13">
-        <f>TEXTJOIN(";",TRUE,R13,AT13,BA13,BH13,ET13,FA13,FH13,IT13,JA13,JH13,MT13,NA13,NH13,QT13,RA13,RH13)</f>
-        <v/>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH13" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="14">
@@ -7139,10 +6480,9 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R14">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C14="",D14="",E14=""), "",CONCAT("[",C14,",",CHAR(34),D14,CHAR(34),",",CHAR(34),E14,CHAR(34),"]")),IF(OR(F14="",G14="",H14=""), "",CONCAT("[",F14,",",CHAR(34),G14,CHAR(34),",",CHAR(34),H14,CHAR(34),"]")),IF(OR(I14="",J14="",K14=""), "",CONCAT("[",I14,",",CHAR(34),J14,CHAR(34),",",CHAR(34),K14,CHAR(34),"]")),IF(OR(L14="",M14="",N14=""), "",CONCAT("[",L14,",",CHAR(34),M14,CHAR(34),",",CHAR(34),N14,CHAR(34),"]")),IF(OR(O14="",P14="",Q14=""), "",CONCAT("[",O14,",",CHAR(34),P14,CHAR(34),",",CHAR(34),Q14,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -7152,85 +6492,6 @@
       <c r="T14">
         <f>IF(R14=S14,"Matched!",CONCAT("Diff → ", R14, " ≠ ", S14))</f>
         <v/>
-      </c>
-      <c r="W14">
-        <f>TEXTJOIN(";",TRUE,R14,AT14,BA14,BH14,ET14,FA14,FH14,IT14,JA14,JH14,MT14,NA14,NH14,QT14,RA14,RH14)</f>
-        <v/>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH14" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="15">
@@ -7295,10 +6556,9 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R15">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C15="",D15="",E15=""), "",CONCAT("[",C15,",",CHAR(34),D15,CHAR(34),",",CHAR(34),E15,CHAR(34),"]")),IF(OR(F15="",G15="",H15=""), "",CONCAT("[",F15,",",CHAR(34),G15,CHAR(34),",",CHAR(34),H15,CHAR(34),"]")),IF(OR(I15="",J15="",K15=""), "",CONCAT("[",I15,",",CHAR(34),J15,CHAR(34),",",CHAR(34),K15,CHAR(34),"]")),IF(OR(L15="",M15="",N15=""), "",CONCAT("[",L15,",",CHAR(34),M15,CHAR(34),",",CHAR(34),N15,CHAR(34),"]")),IF(OR(O15="",P15="",Q15=""), "",CONCAT("[",O15,",",CHAR(34),P15,CHAR(34),",",CHAR(34),Q15,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -7308,85 +6568,6 @@
       <c r="T15">
         <f>IF(R15=S15,"Matched!",CONCAT("Diff → ", R15, " ≠ ", S15))</f>
         <v/>
-      </c>
-      <c r="W15">
-        <f>TEXTJOIN(";",TRUE,R15,AT15,BA15,BH15,ET15,FA15,FH15,IT15,JA15,JH15,MT15,NA15,NH15,QT15,RA15,RH15)</f>
-        <v/>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH15" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="16">
@@ -7463,10 +6644,9 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R16">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C16="",D16="",E16=""), "",CONCAT("[",C16,",",CHAR(34),D16,CHAR(34),",",CHAR(34),E16,CHAR(34),"]")),IF(OR(F16="",G16="",H16=""), "",CONCAT("[",F16,",",CHAR(34),G16,CHAR(34),",",CHAR(34),H16,CHAR(34),"]")),IF(OR(I16="",J16="",K16=""), "",CONCAT("[",I16,",",CHAR(34),J16,CHAR(34),",",CHAR(34),K16,CHAR(34),"]")),IF(OR(L16="",M16="",N16=""), "",CONCAT("[",L16,",",CHAR(34),M16,CHAR(34),",",CHAR(34),N16,CHAR(34),"]")),IF(OR(O16="",P16="",Q16=""), "",CONCAT("[",O16,",",CHAR(34),P16,CHAR(34),",",CHAR(34),Q16,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -7477,85 +6657,6 @@
         <f>IF(R16=S16,"Matched!",CONCAT("Diff → ", R16, " ≠ ", S16))</f>
         <v/>
       </c>
-      <c r="W16">
-        <f>TEXTJOIN(";",TRUE,R16,AT16,BA16,BH16,ET16,FA16,FH16,IT16,JA16,JH16,MT16,NA16,NH16,QT16,RA16,RH16)</f>
-        <v/>
-      </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7643,10 +6744,9 @@
           <t>Test Link 5</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R17">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C17="",D17="",E17=""), "",CONCAT("[",C17,",",CHAR(34),D17,CHAR(34),",",CHAR(34),E17,CHAR(34),"]")),IF(OR(F17="",G17="",H17=""), "",CONCAT("[",F17,",",CHAR(34),G17,CHAR(34),",",CHAR(34),H17,CHAR(34),"]")),IF(OR(I17="",J17="",K17=""), "",CONCAT("[",I17,",",CHAR(34),J17,CHAR(34),",",CHAR(34),K17,CHAR(34),"]")),IF(OR(L17="",M17="",N17=""), "",CONCAT("[",L17,",",CHAR(34),M17,CHAR(34),",",CHAR(34),N17,CHAR(34),"]")),IF(OR(O17="",P17="",Q17=""), "",CONCAT("[",O17,",",CHAR(34),P17,CHAR(34),",",CHAR(34),Q17,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -7656,85 +6756,6 @@
       <c r="T17">
         <f>IF(R17=S17,"Matched!",CONCAT("Diff → ", R17, " ≠ ", S17))</f>
         <v/>
-      </c>
-      <c r="W17">
-        <f>TEXTJOIN(";",TRUE,R17,AT17,BA17,BH17,ET17,FA17,FH17,IT17,JA17,JH17,MT17,NA17,NH17,QT17,RA17,RH17)</f>
-        <v/>
-      </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="18">
@@ -7775,10 +6796,9 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R18">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C18="",D18="",E18=""), "",CONCAT("[",C18,",",CHAR(34),D18,CHAR(34),",",CHAR(34),E18,CHAR(34),"]")),IF(OR(F18="",G18="",H18=""), "",CONCAT("[",F18,",",CHAR(34),G18,CHAR(34),",",CHAR(34),H18,CHAR(34),"]")),IF(OR(I18="",J18="",K18=""), "",CONCAT("[",I18,",",CHAR(34),J18,CHAR(34),",",CHAR(34),K18,CHAR(34),"]")),IF(OR(L18="",M18="",N18=""), "",CONCAT("[",L18,",",CHAR(34),M18,CHAR(34),",",CHAR(34),N18,CHAR(34),"]")),IF(OR(O18="",P18="",Q18=""), "",CONCAT("[",O18,",",CHAR(34),P18,CHAR(34),",",CHAR(34),Q18,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -7788,85 +6808,6 @@
       <c r="T18">
         <f>IF(R18=S18,"Matched!",CONCAT("Diff → ", R18, " ≠ ", S18))</f>
         <v/>
-      </c>
-      <c r="W18">
-        <f>TEXTJOIN(";",TRUE,R18,AT18,BA18,BH18,ET18,FA18,FH18,IT18,JA18,JH18,MT18,NA18,NH18,QT18,RA18,RH18)</f>
-        <v/>
-      </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="19">
@@ -7919,10 +6860,9 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R19">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C19="",D19="",E19=""), "",CONCAT("[",C19,",",CHAR(34),D19,CHAR(34),",",CHAR(34),E19,CHAR(34),"]")),IF(OR(F19="",G19="",H19=""), "",CONCAT("[",F19,",",CHAR(34),G19,CHAR(34),",",CHAR(34),H19,CHAR(34),"]")),IF(OR(I19="",J19="",K19=""), "",CONCAT("[",I19,",",CHAR(34),J19,CHAR(34),",",CHAR(34),K19,CHAR(34),"]")),IF(OR(L19="",M19="",N19=""), "",CONCAT("[",L19,",",CHAR(34),M19,CHAR(34),",",CHAR(34),N19,CHAR(34),"]")),IF(OR(O19="",P19="",Q19=""), "",CONCAT("[",O19,",",CHAR(34),P19,CHAR(34),",",CHAR(34),Q19,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -7932,85 +6872,6 @@
       <c r="T19">
         <f>IF(R19=S19,"Matched!",CONCAT("Diff → ", R19, " ≠ ", S19))</f>
         <v/>
-      </c>
-      <c r="W19">
-        <f>TEXTJOIN(";",TRUE,R19,AT19,BA19,BH19,ET19,FA19,FH19,IT19,JA19,JH19,MT19,NA19,NH19,QT19,RA19,RH19)</f>
-        <v/>
-      </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="20">
@@ -8075,10 +6936,9 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R20">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C20="",D20="",E20=""), "",CONCAT("[",C20,",",CHAR(34),D20,CHAR(34),",",CHAR(34),E20,CHAR(34),"]")),IF(OR(F20="",G20="",H20=""), "",CONCAT("[",F20,",",CHAR(34),G20,CHAR(34),",",CHAR(34),H20,CHAR(34),"]")),IF(OR(I20="",J20="",K20=""), "",CONCAT("[",I20,",",CHAR(34),J20,CHAR(34),",",CHAR(34),K20,CHAR(34),"]")),IF(OR(L20="",M20="",N20=""), "",CONCAT("[",L20,",",CHAR(34),M20,CHAR(34),",",CHAR(34),N20,CHAR(34),"]")),IF(OR(O20="",P20="",Q20=""), "",CONCAT("[",O20,",",CHAR(34),P20,CHAR(34),",",CHAR(34),Q20,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -8088,85 +6948,6 @@
       <c r="T20">
         <f>IF(R20=S20,"Matched!",CONCAT("Diff → ", R20, " ≠ ", S20))</f>
         <v/>
-      </c>
-      <c r="W20">
-        <f>TEXTJOIN(";",TRUE,R20,AT20,BA20,BH20,ET20,FA20,FH20,IT20,JA20,JH20,MT20,NA20,NH20,QT20,RA20,RH20)</f>
-        <v/>
-      </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="21">
@@ -8243,10 +7024,9 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R21">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C21="",D21="",E21=""), "",CONCAT("[",C21,",",CHAR(34),D21,CHAR(34),",",CHAR(34),E21,CHAR(34),"]")),IF(OR(F21="",G21="",H21=""), "",CONCAT("[",F21,",",CHAR(34),G21,CHAR(34),",",CHAR(34),H21,CHAR(34),"]")),IF(OR(I21="",J21="",K21=""), "",CONCAT("[",I21,",",CHAR(34),J21,CHAR(34),",",CHAR(34),K21,CHAR(34),"]")),IF(OR(L21="",M21="",N21=""), "",CONCAT("[",L21,",",CHAR(34),M21,CHAR(34),",",CHAR(34),N21,CHAR(34),"]")),IF(OR(O21="",P21="",Q21=""), "",CONCAT("[",O21,",",CHAR(34),P21,CHAR(34),",",CHAR(34),Q21,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -8257,85 +7037,6 @@
         <f>IF(R21=S21,"Matched!",CONCAT("Diff → ", R21, " ≠ ", S21))</f>
         <v/>
       </c>
-      <c r="W21">
-        <f>TEXTJOIN(";",TRUE,R21,AT21,BA21,BH21,ET21,FA21,FH21,IT21,JA21,JH21,MT21,NA21,NH21,QT21,RA21,RH21)</f>
-        <v/>
-      </c>
-      <c r="AT21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH21" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8423,10 +7124,9 @@
           <t>Test Link 5</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R22">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C22="",D22="",E22=""), "",CONCAT("[",C22,",",CHAR(34),D22,CHAR(34),",",CHAR(34),E22,CHAR(34),"]")),IF(OR(F22="",G22="",H22=""), "",CONCAT("[",F22,",",CHAR(34),G22,CHAR(34),",",CHAR(34),H22,CHAR(34),"]")),IF(OR(I22="",J22="",K22=""), "",CONCAT("[",I22,",",CHAR(34),J22,CHAR(34),",",CHAR(34),K22,CHAR(34),"]")),IF(OR(L22="",M22="",N22=""), "",CONCAT("[",L22,",",CHAR(34),M22,CHAR(34),",",CHAR(34),N22,CHAR(34),"]")),IF(OR(O22="",P22="",Q22=""), "",CONCAT("[",O22,",",CHAR(34),P22,CHAR(34),",",CHAR(34),Q22,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -8436,85 +7136,6 @@
       <c r="T22">
         <f>IF(R22=S22,"Matched!",CONCAT("Diff → ", R22, " ≠ ", S22))</f>
         <v/>
-      </c>
-      <c r="W22">
-        <f>TEXTJOIN(";",TRUE,R22,AT22,BA22,BH22,ET22,FA22,FH22,IT22,JA22,JH22,MT22,NA22,NH22,QT22,RA22,RH22)</f>
-        <v/>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH22" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="23">
@@ -8555,10 +7176,9 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R23">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C23="",D23="",E23=""), "",CONCAT("[",C23,",",CHAR(34),D23,CHAR(34),",",CHAR(34),E23,CHAR(34),"]")),IF(OR(F23="",G23="",H23=""), "",CONCAT("[",F23,",",CHAR(34),G23,CHAR(34),",",CHAR(34),H23,CHAR(34),"]")),IF(OR(I23="",J23="",K23=""), "",CONCAT("[",I23,",",CHAR(34),J23,CHAR(34),",",CHAR(34),K23,CHAR(34),"]")),IF(OR(L23="",M23="",N23=""), "",CONCAT("[",L23,",",CHAR(34),M23,CHAR(34),",",CHAR(34),N23,CHAR(34),"]")),IF(OR(O23="",P23="",Q23=""), "",CONCAT("[",O23,",",CHAR(34),P23,CHAR(34),",",CHAR(34),Q23,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -8568,85 +7188,6 @@
       <c r="T23">
         <f>IF(R23=S23,"Matched!",CONCAT("Diff → ", R23, " ≠ ", S23))</f>
         <v/>
-      </c>
-      <c r="W23">
-        <f>TEXTJOIN(";",TRUE,R23,AT23,BA23,BH23,ET23,FA23,FH23,IT23,JA23,JH23,MT23,NA23,NH23,QT23,RA23,RH23)</f>
-        <v/>
-      </c>
-      <c r="AT23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH23" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="24">
@@ -8699,10 +7240,9 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R24">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C24="",D24="",E24=""), "",CONCAT("[",C24,",",CHAR(34),D24,CHAR(34),",",CHAR(34),E24,CHAR(34),"]")),IF(OR(F24="",G24="",H24=""), "",CONCAT("[",F24,",",CHAR(34),G24,CHAR(34),",",CHAR(34),H24,CHAR(34),"]")),IF(OR(I24="",J24="",K24=""), "",CONCAT("[",I24,",",CHAR(34),J24,CHAR(34),",",CHAR(34),K24,CHAR(34),"]")),IF(OR(L24="",M24="",N24=""), "",CONCAT("[",L24,",",CHAR(34),M24,CHAR(34),",",CHAR(34),N24,CHAR(34),"]")),IF(OR(O24="",P24="",Q24=""), "",CONCAT("[",O24,",",CHAR(34),P24,CHAR(34),",",CHAR(34),Q24,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -8712,85 +7252,6 @@
       <c r="T24">
         <f>IF(R24=S24,"Matched!",CONCAT("Diff → ", R24, " ≠ ", S24))</f>
         <v/>
-      </c>
-      <c r="W24">
-        <f>TEXTJOIN(";",TRUE,R24,AT24,BA24,BH24,ET24,FA24,FH24,IT24,JA24,JH24,MT24,NA24,NH24,QT24,RA24,RH24)</f>
-        <v/>
-      </c>
-      <c r="AT24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH24" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="25">
@@ -8855,10 +7316,9 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R25">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C25="",D25="",E25=""), "",CONCAT("[",C25,",",CHAR(34),D25,CHAR(34),",",CHAR(34),E25,CHAR(34),"]")),IF(OR(F25="",G25="",H25=""), "",CONCAT("[",F25,",",CHAR(34),G25,CHAR(34),",",CHAR(34),H25,CHAR(34),"]")),IF(OR(I25="",J25="",K25=""), "",CONCAT("[",I25,",",CHAR(34),J25,CHAR(34),",",CHAR(34),K25,CHAR(34),"]")),IF(OR(L25="",M25="",N25=""), "",CONCAT("[",L25,",",CHAR(34),M25,CHAR(34),",",CHAR(34),N25,CHAR(34),"]")),IF(OR(O25="",P25="",Q25=""), "",CONCAT("[",O25,",",CHAR(34),P25,CHAR(34),",",CHAR(34),Q25,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -8868,85 +7328,6 @@
       <c r="T25">
         <f>IF(R25=S25,"Matched!",CONCAT("Diff → ", R25, " ≠ ", S25))</f>
         <v/>
-      </c>
-      <c r="W25">
-        <f>TEXTJOIN(";",TRUE,R25,AT25,BA25,BH25,ET25,FA25,FH25,IT25,JA25,JH25,MT25,NA25,NH25,QT25,RA25,RH25)</f>
-        <v/>
-      </c>
-      <c r="AT25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH25" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
     <row r="26">
@@ -9023,10 +7404,9 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+      <c r="R26">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C26="",D26="",E26=""), "",CONCAT("[",C26,",",CHAR(34),D26,CHAR(34),",",CHAR(34),E26,CHAR(34),"]")),IF(OR(F26="",G26="",H26=""), "",CONCAT("[",F26,",",CHAR(34),G26,CHAR(34),",",CHAR(34),H26,CHAR(34),"]")),IF(OR(I26="",J26="",K26=""), "",CONCAT("[",I26,",",CHAR(34),J26,CHAR(34),",",CHAR(34),K26,CHAR(34),"]")),IF(OR(L26="",M26="",N26=""), "",CONCAT("[",L26,",",CHAR(34),M26,CHAR(34),",",CHAR(34),N26,CHAR(34),"]")),IF(OR(O26="",P26="",Q26=""), "",CONCAT("[",O26,",",CHAR(34),P26,CHAR(34),",",CHAR(34),Q26,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -9037,85 +7417,6 @@
         <f>IF(R26=S26,"Matched!",CONCAT("Diff → ", R26, " ≠ ", S26))</f>
         <v/>
       </c>
-      <c r="W26">
-        <f>TEXTJOIN(";",TRUE,R26,AT26,BA26,BH26,ET26,FA26,FH26,IT26,JA26,JH26,MT26,NA26,NH26,QT26,RA26,RH26)</f>
-        <v/>
-      </c>
-      <c r="AT26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH26" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9195,106 +7496,26 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>https://e.com</t>
+          <t>https://eernie.com</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Test Link 5</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
+          <t>SesameStreet</t>
+        </is>
+      </c>
+      <c r="R27">
+        <f>TEXTJOIN(";", TRUE,IF(OR(C27="",D27="",E27=""), "",CONCAT("[",C27,",",CHAR(34),D27,CHAR(34),",",CHAR(34),E27,CHAR(34),"]")),IF(OR(F27="",G27="",H27=""), "",CONCAT("[",F27,",",CHAR(34),G27,CHAR(34),",",CHAR(34),H27,CHAR(34),"]")),IF(OR(I27="",J27="",K27=""), "",CONCAT("[",I27,",",CHAR(34),J27,CHAR(34),",",CHAR(34),K27,CHAR(34),"]")),IF(OR(L27="",M27="",N27=""), "",CONCAT("[",L27,",",CHAR(34),M27,CHAR(34),",",CHAR(34),N27,CHAR(34),"]")),IF(OR(O27="",P27="",Q27=""), "",CONCAT("[",O27,",",CHAR(34),P27,CHAR(34),",",CHAR(34),Q27,CHAR(34),"]")))</f>
+        <v/>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[T1,"https://example25-1.com","Test Link 1"];[T2,"https://example25-2.com","Test Link 2"];[T3,"https://example25-3.com","Test Link 3"];[T4,"https://example25-4.com","Test Link 4"];[T5,"https://e.com","Test Link 5"]</t>
+          <t>[T1,"https://example25-1.com","Test Link 1"];[T2,"https://example25-2.com","Test Link 2"];[T3,"https://example25-3.com","Test Link 3"];[T4,"https://example25-4.com","Test Link 4"];[T5,"https://eernie.com","SesameStreet"]</t>
         </is>
       </c>
       <c r="T27">
         <f>IF(R27=S27,"Matched!",CONCAT("Diff → ", R27, " ≠ ", S27))</f>
         <v/>
-      </c>
-      <c r="W27">
-        <f>TEXTJOIN(";",TRUE,R27,AT27,BA27,BH27,ET27,FA27,FH27,IT27,JA27,JH27,MT27,NA27,NH27,QT27,RA27,RH27)</f>
-        <v/>
-      </c>
-      <c r="AT27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BA27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="BH27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="ET27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FA27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="FH27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="IT27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JA27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="JH27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="MT27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NA27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="NH27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="QT27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RA27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="RH27" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
       </c>
     </row>
   </sheetData>
